--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,9 @@
     <t>['18', '81', '90+5']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -506,6 +509,9 @@
   </si>
   <si>
     <t>['3', '72']</t>
+  </si>
+  <si>
+    <t>['16', '39']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,7 +1308,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1392,7 +1398,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1493,7 +1499,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1875,7 +1881,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2257,7 +2263,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2344,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT8">
         <v>1.25</v>
@@ -2639,7 +2645,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3021,7 +3027,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3212,7 +3218,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3403,7 +3409,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3976,7 +3982,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4066,7 +4072,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU17">
         <v>2.06</v>
@@ -4167,7 +4173,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4358,7 +4364,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4445,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT19">
         <v>1.33</v>
@@ -4549,7 +4555,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5313,7 +5319,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5785,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5886,7 +5892,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5973,7 +5979,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT27">
         <v>1.33</v>
@@ -6077,7 +6083,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6268,7 +6274,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6459,7 +6465,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6841,7 +6847,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7032,7 +7038,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7223,7 +7229,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7796,7 +7802,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7987,7 +7993,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8369,7 +8375,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8560,7 +8566,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8751,7 +8757,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8942,7 +8948,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9602,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10279,7 +10285,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10470,7 +10476,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10751,7 +10757,7 @@
         <v>2</v>
       </c>
       <c r="AT52">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11043,7 +11049,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11234,7 +11240,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11425,7 +11431,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11616,7 +11622,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12380,7 +12386,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12571,7 +12577,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12762,7 +12768,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -12953,7 +12959,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13095,6 +13101,197 @@
       </c>
       <c r="BK64">
         <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5240153</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>44995.90277777778</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>134</v>
+      </c>
+      <c r="P65" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q65">
+        <v>8</v>
+      </c>
+      <c r="R65">
+        <v>5</v>
+      </c>
+      <c r="S65">
+        <v>13</v>
+      </c>
+      <c r="T65">
+        <v>2.15</v>
+      </c>
+      <c r="U65">
+        <v>2.15</v>
+      </c>
+      <c r="V65">
+        <v>5.5</v>
+      </c>
+      <c r="W65">
+        <v>1.41</v>
+      </c>
+      <c r="X65">
+        <v>2.65</v>
+      </c>
+      <c r="Y65">
+        <v>2.9</v>
+      </c>
+      <c r="Z65">
+        <v>1.36</v>
+      </c>
+      <c r="AA65">
+        <v>7.5</v>
+      </c>
+      <c r="AB65">
+        <v>1.08</v>
+      </c>
+      <c r="AC65">
+        <v>1.57</v>
+      </c>
+      <c r="AD65">
+        <v>3.79</v>
+      </c>
+      <c r="AE65">
+        <v>5.97</v>
+      </c>
+      <c r="AF65">
+        <v>1.07</v>
+      </c>
+      <c r="AG65">
+        <v>7.5</v>
+      </c>
+      <c r="AH65">
+        <v>1.33</v>
+      </c>
+      <c r="AI65">
+        <v>3.2</v>
+      </c>
+      <c r="AJ65">
+        <v>1.98</v>
+      </c>
+      <c r="AK65">
+        <v>1.78</v>
+      </c>
+      <c r="AL65">
+        <v>2</v>
+      </c>
+      <c r="AM65">
+        <v>1.7</v>
+      </c>
+      <c r="AN65">
+        <v>1.15</v>
+      </c>
+      <c r="AO65">
+        <v>1.26</v>
+      </c>
+      <c r="AP65">
+        <v>2.25</v>
+      </c>
+      <c r="AQ65">
+        <v>2</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>1.6</v>
+      </c>
+      <c r="AT65">
+        <v>0.6</v>
+      </c>
+      <c r="AU65">
+        <v>1.64</v>
+      </c>
+      <c r="AV65">
+        <v>1.49</v>
+      </c>
+      <c r="AW65">
+        <v>3.13</v>
+      </c>
+      <c r="AX65">
+        <v>1.41</v>
+      </c>
+      <c r="AY65">
+        <v>8.5</v>
+      </c>
+      <c r="AZ65">
+        <v>3.66</v>
+      </c>
+      <c r="BA65">
+        <v>1.4</v>
+      </c>
+      <c r="BB65">
+        <v>1.66</v>
+      </c>
+      <c r="BC65">
+        <v>2.12</v>
+      </c>
+      <c r="BD65">
+        <v>2.88</v>
+      </c>
+      <c r="BE65">
+        <v>4</v>
+      </c>
+      <c r="BF65">
+        <v>7</v>
+      </c>
+      <c r="BG65">
+        <v>8</v>
+      </c>
+      <c r="BH65">
+        <v>6</v>
+      </c>
+      <c r="BI65">
+        <v>6</v>
+      </c>
+      <c r="BJ65">
+        <v>13</v>
+      </c>
+      <c r="BK65">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,9 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['14', '52']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -512,6 +515,9 @@
   </si>
   <si>
     <t>['16', '39']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,7 +1314,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1499,7 +1505,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1777,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT5">
         <v>0.67</v>
@@ -1881,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2159,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2263,7 +2269,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2645,7 +2651,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2735,7 +2741,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2923,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT11">
         <v>1.25</v>
@@ -3027,7 +3033,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3117,7 +3123,7 @@
         <v>1.75</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3218,7 +3224,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3308,7 +3314,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3409,7 +3415,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3687,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT15">
         <v>0.33</v>
@@ -3982,7 +3988,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4173,7 +4179,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4364,7 +4370,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4555,7 +4561,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4833,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -5319,7 +5325,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5892,7 +5898,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5982,7 +5988,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU27">
         <v>1.61</v>
@@ -6083,7 +6089,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6173,7 +6179,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU28">
         <v>1.46</v>
@@ -6274,7 +6280,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6465,7 +6471,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6743,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -6847,7 +6853,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -6934,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT32">
         <v>1.33</v>
@@ -7038,7 +7044,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7229,7 +7235,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7319,7 +7325,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7802,7 +7808,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7993,7 +7999,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8375,7 +8381,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8566,7 +8572,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8757,7 +8763,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8948,7 +8954,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9035,7 +9041,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT43">
         <v>1.25</v>
@@ -9229,7 +9235,7 @@
         <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU44">
         <v>2.03</v>
@@ -10184,7 +10190,7 @@
         <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.92</v>
@@ -10285,7 +10291,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10476,7 +10482,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10566,7 +10572,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU51">
         <v>2.46</v>
@@ -10754,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT52">
         <v>0.6</v>
@@ -10945,7 +10951,7 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11049,7 +11055,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11136,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11240,7 +11246,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11431,7 +11437,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11622,7 +11628,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12386,7 +12392,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12577,7 +12583,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12768,7 +12774,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -12959,7 +12965,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13150,7 +13156,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13292,6 +13298,579 @@
       </c>
       <c r="BK65">
         <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5240160</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>44996.75</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>128</v>
+      </c>
+      <c r="P66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q66">
+        <v>7</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>9</v>
+      </c>
+      <c r="T66">
+        <v>2.7</v>
+      </c>
+      <c r="U66">
+        <v>1.95</v>
+      </c>
+      <c r="V66">
+        <v>4.2</v>
+      </c>
+      <c r="W66">
+        <v>1.49</v>
+      </c>
+      <c r="X66">
+        <v>2.4</v>
+      </c>
+      <c r="Y66">
+        <v>3.3</v>
+      </c>
+      <c r="Z66">
+        <v>1.28</v>
+      </c>
+      <c r="AA66">
+        <v>9.5</v>
+      </c>
+      <c r="AB66">
+        <v>1.05</v>
+      </c>
+      <c r="AC66">
+        <v>1.93</v>
+      </c>
+      <c r="AD66">
+        <v>2.82</v>
+      </c>
+      <c r="AE66">
+        <v>3.46</v>
+      </c>
+      <c r="AF66">
+        <v>1.1</v>
+      </c>
+      <c r="AG66">
+        <v>6.5</v>
+      </c>
+      <c r="AH66">
+        <v>1.44</v>
+      </c>
+      <c r="AI66">
+        <v>2.62</v>
+      </c>
+      <c r="AJ66">
+        <v>2.43</v>
+      </c>
+      <c r="AK66">
+        <v>1.55</v>
+      </c>
+      <c r="AL66">
+        <v>2.05</v>
+      </c>
+      <c r="AM66">
+        <v>1.66</v>
+      </c>
+      <c r="AN66">
+        <v>1.26</v>
+      </c>
+      <c r="AO66">
+        <v>1.32</v>
+      </c>
+      <c r="AP66">
+        <v>1.73</v>
+      </c>
+      <c r="AQ66">
+        <v>0.67</v>
+      </c>
+      <c r="AR66">
+        <v>1.33</v>
+      </c>
+      <c r="AS66">
+        <v>0.75</v>
+      </c>
+      <c r="AT66">
+        <v>1.25</v>
+      </c>
+      <c r="AU66">
+        <v>1.84</v>
+      </c>
+      <c r="AV66">
+        <v>1.23</v>
+      </c>
+      <c r="AW66">
+        <v>3.07</v>
+      </c>
+      <c r="AX66">
+        <v>1.45</v>
+      </c>
+      <c r="AY66">
+        <v>8.5</v>
+      </c>
+      <c r="AZ66">
+        <v>3.32</v>
+      </c>
+      <c r="BA66">
+        <v>1.23</v>
+      </c>
+      <c r="BB66">
+        <v>1.5</v>
+      </c>
+      <c r="BC66">
+        <v>1.9</v>
+      </c>
+      <c r="BD66">
+        <v>2.45</v>
+      </c>
+      <c r="BE66">
+        <v>3.14</v>
+      </c>
+      <c r="BF66">
+        <v>7</v>
+      </c>
+      <c r="BG66">
+        <v>4</v>
+      </c>
+      <c r="BH66">
+        <v>7</v>
+      </c>
+      <c r="BI66">
+        <v>8</v>
+      </c>
+      <c r="BJ66">
+        <v>14</v>
+      </c>
+      <c r="BK66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5240158</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>44996.84027777778</v>
+      </c>
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>6</v>
+      </c>
+      <c r="S67">
+        <v>12</v>
+      </c>
+      <c r="T67">
+        <v>2.89</v>
+      </c>
+      <c r="U67">
+        <v>2.08</v>
+      </c>
+      <c r="V67">
+        <v>4.44</v>
+      </c>
+      <c r="W67">
+        <v>1.5</v>
+      </c>
+      <c r="X67">
+        <v>2.61</v>
+      </c>
+      <c r="Y67">
+        <v>3.42</v>
+      </c>
+      <c r="Z67">
+        <v>1.32</v>
+      </c>
+      <c r="AA67">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB67">
+        <v>1.05</v>
+      </c>
+      <c r="AC67">
+        <v>2.09</v>
+      </c>
+      <c r="AD67">
+        <v>3.16</v>
+      </c>
+      <c r="AE67">
+        <v>3.48</v>
+      </c>
+      <c r="AF67">
+        <v>1.08</v>
+      </c>
+      <c r="AG67">
+        <v>7</v>
+      </c>
+      <c r="AH67">
+        <v>1.4</v>
+      </c>
+      <c r="AI67">
+        <v>2.75</v>
+      </c>
+      <c r="AJ67">
+        <v>2.28</v>
+      </c>
+      <c r="AK67">
+        <v>1.63</v>
+      </c>
+      <c r="AL67">
+        <v>1.99</v>
+      </c>
+      <c r="AM67">
+        <v>1.82</v>
+      </c>
+      <c r="AN67">
+        <v>1.27</v>
+      </c>
+      <c r="AO67">
+        <v>1.37</v>
+      </c>
+      <c r="AP67">
+        <v>1.73</v>
+      </c>
+      <c r="AQ67">
+        <v>2</v>
+      </c>
+      <c r="AR67">
+        <v>1.5</v>
+      </c>
+      <c r="AS67">
+        <v>1.8</v>
+      </c>
+      <c r="AT67">
+        <v>1.33</v>
+      </c>
+      <c r="AU67">
+        <v>1.47</v>
+      </c>
+      <c r="AV67">
+        <v>1.37</v>
+      </c>
+      <c r="AW67">
+        <v>2.84</v>
+      </c>
+      <c r="AX67">
+        <v>1.82</v>
+      </c>
+      <c r="AY67">
+        <v>7.5</v>
+      </c>
+      <c r="AZ67">
+        <v>2.42</v>
+      </c>
+      <c r="BA67">
+        <v>1.36</v>
+      </c>
+      <c r="BB67">
+        <v>1.67</v>
+      </c>
+      <c r="BC67">
+        <v>2.15</v>
+      </c>
+      <c r="BD67">
+        <v>2.63</v>
+      </c>
+      <c r="BE67">
+        <v>3.88</v>
+      </c>
+      <c r="BF67">
+        <v>5</v>
+      </c>
+      <c r="BG67">
+        <v>3</v>
+      </c>
+      <c r="BH67">
+        <v>5</v>
+      </c>
+      <c r="BI67">
+        <v>3</v>
+      </c>
+      <c r="BJ67">
+        <v>10</v>
+      </c>
+      <c r="BK67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5240155</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44996.93055555555</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>78</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>135</v>
+      </c>
+      <c r="P68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q68">
+        <v>6</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>8</v>
+      </c>
+      <c r="T68">
+        <v>2.75</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68">
+        <v>3.8</v>
+      </c>
+      <c r="W68">
+        <v>1.46</v>
+      </c>
+      <c r="X68">
+        <v>2.5</v>
+      </c>
+      <c r="Y68">
+        <v>3.2</v>
+      </c>
+      <c r="Z68">
+        <v>1.3</v>
+      </c>
+      <c r="AA68">
+        <v>9</v>
+      </c>
+      <c r="AB68">
+        <v>1.06</v>
+      </c>
+      <c r="AC68">
+        <v>1.91</v>
+      </c>
+      <c r="AD68">
+        <v>3</v>
+      </c>
+      <c r="AE68">
+        <v>3.29</v>
+      </c>
+      <c r="AF68">
+        <v>1.07</v>
+      </c>
+      <c r="AG68">
+        <v>7.5</v>
+      </c>
+      <c r="AH68">
+        <v>1.5</v>
+      </c>
+      <c r="AI68">
+        <v>2.55</v>
+      </c>
+      <c r="AJ68">
+        <v>2.4</v>
+      </c>
+      <c r="AK68">
+        <v>1.57</v>
+      </c>
+      <c r="AL68">
+        <v>1.98</v>
+      </c>
+      <c r="AM68">
+        <v>1.73</v>
+      </c>
+      <c r="AN68">
+        <v>1.31</v>
+      </c>
+      <c r="AO68">
+        <v>1.31</v>
+      </c>
+      <c r="AP68">
+        <v>1.66</v>
+      </c>
+      <c r="AQ68">
+        <v>2.5</v>
+      </c>
+      <c r="AR68">
+        <v>1</v>
+      </c>
+      <c r="AS68">
+        <v>2.6</v>
+      </c>
+      <c r="AT68">
+        <v>0.8</v>
+      </c>
+      <c r="AU68">
+        <v>1.75</v>
+      </c>
+      <c r="AV68">
+        <v>1.5</v>
+      </c>
+      <c r="AW68">
+        <v>3.25</v>
+      </c>
+      <c r="AX68">
+        <v>1.64</v>
+      </c>
+      <c r="AY68">
+        <v>7.5</v>
+      </c>
+      <c r="AZ68">
+        <v>2.78</v>
+      </c>
+      <c r="BA68">
+        <v>1.45</v>
+      </c>
+      <c r="BB68">
+        <v>1.83</v>
+      </c>
+      <c r="BC68">
+        <v>2.4</v>
+      </c>
+      <c r="BD68">
+        <v>3.25</v>
+      </c>
+      <c r="BE68">
+        <v>4.7</v>
+      </c>
+      <c r="BF68">
+        <v>5</v>
+      </c>
+      <c r="BG68">
+        <v>2</v>
+      </c>
+      <c r="BH68">
+        <v>4</v>
+      </c>
+      <c r="BI68">
+        <v>11</v>
+      </c>
+      <c r="BJ68">
+        <v>9</v>
+      </c>
+      <c r="BK68">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,18 @@
     <t>['14', '52']</t>
   </si>
   <si>
+    <t>['15', '40']</t>
+  </si>
+  <si>
+    <t>['66', '74']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['10', '55']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -518,6 +530,12 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['53', '69']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK68"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1231,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1314,7 +1332,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1505,7 +1523,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT4">
         <v>0.33</v>
@@ -1887,7 +1905,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1974,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
+        <v>2</v>
+      </c>
+      <c r="AT6">
         <v>1.5</v>
-      </c>
-      <c r="AT6">
-        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2269,7 +2287,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2550,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="AT9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2651,7 +2669,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3033,7 +3051,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3224,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3311,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT13">
         <v>0.8</v>
@@ -3415,7 +3433,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3502,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>0.75</v>
@@ -3887,7 +3905,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -3988,7 +4006,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4179,7 +4197,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4370,7 +4388,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4561,7 +4579,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4651,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5224,7 +5242,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>1.29</v>
@@ -5325,7 +5343,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5412,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT24">
         <v>0.75</v>
@@ -5603,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT25">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>2.16</v>
@@ -5794,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT26">
         <v>0.6</v>
@@ -5898,7 +5916,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6089,7 +6107,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6280,7 +6298,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6367,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT29">
         <v>1.25</v>
@@ -6471,7 +6489,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6561,7 +6579,7 @@
         <v>2.33</v>
       </c>
       <c r="AT30">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU30">
         <v>2.5</v>
@@ -6752,7 +6770,7 @@
         <v>2.6</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU31">
         <v>1.86</v>
@@ -6853,7 +6871,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7044,7 +7062,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7131,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7235,7 +7253,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7808,7 +7826,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7898,7 +7916,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU37">
         <v>2.6</v>
@@ -7999,7 +8017,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8381,7 +8399,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8572,7 +8590,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8763,7 +8781,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8954,7 +8972,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9232,7 +9250,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT44">
         <v>1.25</v>
@@ -9423,10 +9441,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU45">
         <v>2.31</v>
@@ -9617,7 +9635,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU46">
         <v>1.65</v>
@@ -9808,7 +9826,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU47">
         <v>2.24</v>
@@ -9996,10 +10014,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
+        <v>1.33</v>
+      </c>
+      <c r="AT48">
         <v>0.5</v>
-      </c>
-      <c r="AT48">
-        <v>0.67</v>
       </c>
       <c r="AU48">
         <v>2.44</v>
@@ -10187,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10291,7 +10309,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10378,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT50">
         <v>1.33</v>
@@ -10482,7 +10500,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -10569,7 +10587,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT51">
         <v>0.8</v>
@@ -10954,7 +10972,7 @@
         <v>2.6</v>
       </c>
       <c r="AT53">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU53">
         <v>1.73</v>
@@ -11055,7 +11073,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11145,7 +11163,7 @@
         <v>0.75</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11246,7 +11264,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11437,7 +11455,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11628,7 +11646,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12392,7 +12410,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12583,7 +12601,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12774,7 +12792,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -12965,7 +12983,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13052,10 +13070,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT64">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13156,7 +13174,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13347,7 +13365,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13871,6 +13889,1152 @@
       </c>
       <c r="BK68">
         <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5240162</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44997.75</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>136</v>
+      </c>
+      <c r="P69" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q69">
+        <v>4</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>5</v>
+      </c>
+      <c r="T69">
+        <v>2.4</v>
+      </c>
+      <c r="U69">
+        <v>2.05</v>
+      </c>
+      <c r="V69">
+        <v>4.5</v>
+      </c>
+      <c r="W69">
+        <v>1.43</v>
+      </c>
+      <c r="X69">
+        <v>2.6</v>
+      </c>
+      <c r="Y69">
+        <v>3</v>
+      </c>
+      <c r="Z69">
+        <v>1.34</v>
+      </c>
+      <c r="AA69">
+        <v>8</v>
+      </c>
+      <c r="AB69">
+        <v>1.07</v>
+      </c>
+      <c r="AC69">
+        <v>1.72</v>
+      </c>
+      <c r="AD69">
+        <v>3.45</v>
+      </c>
+      <c r="AE69">
+        <v>4.6</v>
+      </c>
+      <c r="AF69">
+        <v>1.04</v>
+      </c>
+      <c r="AG69">
+        <v>7.8</v>
+      </c>
+      <c r="AH69">
+        <v>1.36</v>
+      </c>
+      <c r="AI69">
+        <v>2.83</v>
+      </c>
+      <c r="AJ69">
+        <v>2.05</v>
+      </c>
+      <c r="AK69">
+        <v>1.78</v>
+      </c>
+      <c r="AL69">
+        <v>1.98</v>
+      </c>
+      <c r="AM69">
+        <v>1.72</v>
+      </c>
+      <c r="AN69">
+        <v>1.21</v>
+      </c>
+      <c r="AO69">
+        <v>1.29</v>
+      </c>
+      <c r="AP69">
+        <v>1.9</v>
+      </c>
+      <c r="AQ69">
+        <v>2.33</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+      <c r="AS69">
+        <v>2.5</v>
+      </c>
+      <c r="AT69">
+        <v>0.75</v>
+      </c>
+      <c r="AU69">
+        <v>2.01</v>
+      </c>
+      <c r="AV69">
+        <v>1.2</v>
+      </c>
+      <c r="AW69">
+        <v>3.21</v>
+      </c>
+      <c r="AX69">
+        <v>1.45</v>
+      </c>
+      <c r="AY69">
+        <v>8.5</v>
+      </c>
+      <c r="AZ69">
+        <v>3.32</v>
+      </c>
+      <c r="BA69">
+        <v>1.36</v>
+      </c>
+      <c r="BB69">
+        <v>1.67</v>
+      </c>
+      <c r="BC69">
+        <v>2.15</v>
+      </c>
+      <c r="BD69">
+        <v>2.9</v>
+      </c>
+      <c r="BE69">
+        <v>3.98</v>
+      </c>
+      <c r="BF69">
+        <v>6</v>
+      </c>
+      <c r="BG69">
+        <v>4</v>
+      </c>
+      <c r="BH69">
+        <v>4</v>
+      </c>
+      <c r="BI69">
+        <v>3</v>
+      </c>
+      <c r="BJ69">
+        <v>10</v>
+      </c>
+      <c r="BK69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5240156</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>44997.84027777778</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>125</v>
+      </c>
+      <c r="P70" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>9</v>
+      </c>
+      <c r="T70">
+        <v>2.1</v>
+      </c>
+      <c r="U70">
+        <v>2.1</v>
+      </c>
+      <c r="V70">
+        <v>6</v>
+      </c>
+      <c r="W70">
+        <v>1.46</v>
+      </c>
+      <c r="X70">
+        <v>2.5</v>
+      </c>
+      <c r="Y70">
+        <v>3.25</v>
+      </c>
+      <c r="Z70">
+        <v>1.3</v>
+      </c>
+      <c r="AA70">
+        <v>9</v>
+      </c>
+      <c r="AB70">
+        <v>1.06</v>
+      </c>
+      <c r="AC70">
+        <v>1.49</v>
+      </c>
+      <c r="AD70">
+        <v>3.8</v>
+      </c>
+      <c r="AE70">
+        <v>6.75</v>
+      </c>
+      <c r="AF70">
+        <v>1.08</v>
+      </c>
+      <c r="AG70">
+        <v>7</v>
+      </c>
+      <c r="AH70">
+        <v>1.5</v>
+      </c>
+      <c r="AI70">
+        <v>2.37</v>
+      </c>
+      <c r="AJ70">
+        <v>2.35</v>
+      </c>
+      <c r="AK70">
+        <v>1.6</v>
+      </c>
+      <c r="AL70">
+        <v>2.37</v>
+      </c>
+      <c r="AM70">
+        <v>1.51</v>
+      </c>
+      <c r="AN70">
+        <v>1.12</v>
+      </c>
+      <c r="AO70">
+        <v>1.24</v>
+      </c>
+      <c r="AP70">
+        <v>2.4</v>
+      </c>
+      <c r="AQ70">
+        <v>1.67</v>
+      </c>
+      <c r="AR70">
+        <v>0.67</v>
+      </c>
+      <c r="AS70">
+        <v>1.25</v>
+      </c>
+      <c r="AT70">
+        <v>1.25</v>
+      </c>
+      <c r="AU70">
+        <v>2.31</v>
+      </c>
+      <c r="AV70">
+        <v>1.81</v>
+      </c>
+      <c r="AW70">
+        <v>4.12</v>
+      </c>
+      <c r="AX70">
+        <v>1.37</v>
+      </c>
+      <c r="AY70">
+        <v>9</v>
+      </c>
+      <c r="AZ70">
+        <v>3.82</v>
+      </c>
+      <c r="BA70">
+        <v>1.4</v>
+      </c>
+      <c r="BB70">
+        <v>1.73</v>
+      </c>
+      <c r="BC70">
+        <v>2.25</v>
+      </c>
+      <c r="BD70">
+        <v>3.1</v>
+      </c>
+      <c r="BE70">
+        <v>4.1</v>
+      </c>
+      <c r="BF70">
+        <v>5</v>
+      </c>
+      <c r="BG70">
+        <v>5</v>
+      </c>
+      <c r="BH70">
+        <v>6</v>
+      </c>
+      <c r="BI70">
+        <v>5</v>
+      </c>
+      <c r="BJ70">
+        <v>11</v>
+      </c>
+      <c r="BK70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5240159</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44997.93055555555</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>137</v>
+      </c>
+      <c r="P71" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>6</v>
+      </c>
+      <c r="S71">
+        <v>8</v>
+      </c>
+      <c r="T71">
+        <v>2.8</v>
+      </c>
+      <c r="U71">
+        <v>1.88</v>
+      </c>
+      <c r="V71">
+        <v>4.2</v>
+      </c>
+      <c r="W71">
+        <v>1.55</v>
+      </c>
+      <c r="X71">
+        <v>2.25</v>
+      </c>
+      <c r="Y71">
+        <v>3.7</v>
+      </c>
+      <c r="Z71">
+        <v>1.24</v>
+      </c>
+      <c r="AA71">
+        <v>11</v>
+      </c>
+      <c r="AB71">
+        <v>1.04</v>
+      </c>
+      <c r="AC71">
+        <v>2.12</v>
+      </c>
+      <c r="AD71">
+        <v>3</v>
+      </c>
+      <c r="AE71">
+        <v>3.55</v>
+      </c>
+      <c r="AF71">
+        <v>1.1</v>
+      </c>
+      <c r="AG71">
+        <v>7</v>
+      </c>
+      <c r="AH71">
+        <v>1.55</v>
+      </c>
+      <c r="AI71">
+        <v>2.45</v>
+      </c>
+      <c r="AJ71">
+        <v>2.55</v>
+      </c>
+      <c r="AK71">
+        <v>1.5</v>
+      </c>
+      <c r="AL71">
+        <v>2.25</v>
+      </c>
+      <c r="AM71">
+        <v>1.57</v>
+      </c>
+      <c r="AN71">
+        <v>1.27</v>
+      </c>
+      <c r="AO71">
+        <v>1.34</v>
+      </c>
+      <c r="AP71">
+        <v>1.7</v>
+      </c>
+      <c r="AQ71">
+        <v>2</v>
+      </c>
+      <c r="AR71">
+        <v>0.67</v>
+      </c>
+      <c r="AS71">
+        <v>2.25</v>
+      </c>
+      <c r="AT71">
+        <v>0.5</v>
+      </c>
+      <c r="AU71">
+        <v>2.08</v>
+      </c>
+      <c r="AV71">
+        <v>0.88</v>
+      </c>
+      <c r="AW71">
+        <v>2.96</v>
+      </c>
+      <c r="AX71">
+        <v>1.53</v>
+      </c>
+      <c r="AY71">
+        <v>7.9</v>
+      </c>
+      <c r="AZ71">
+        <v>3.2</v>
+      </c>
+      <c r="BA71">
+        <v>1.33</v>
+      </c>
+      <c r="BB71">
+        <v>1.69</v>
+      </c>
+      <c r="BC71">
+        <v>2.09</v>
+      </c>
+      <c r="BD71">
+        <v>2.76</v>
+      </c>
+      <c r="BE71">
+        <v>3.9</v>
+      </c>
+      <c r="BF71">
+        <v>9</v>
+      </c>
+      <c r="BG71">
+        <v>5</v>
+      </c>
+      <c r="BH71">
+        <v>6</v>
+      </c>
+      <c r="BI71">
+        <v>7</v>
+      </c>
+      <c r="BJ71">
+        <v>15</v>
+      </c>
+      <c r="BK71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5240157</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44998.92361111111</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>85</v>
+      </c>
+      <c r="P72" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q72">
+        <v>6</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <v>9</v>
+      </c>
+      <c r="T72">
+        <v>3.2</v>
+      </c>
+      <c r="U72">
+        <v>1.9</v>
+      </c>
+      <c r="V72">
+        <v>3.5</v>
+      </c>
+      <c r="W72">
+        <v>1.5</v>
+      </c>
+      <c r="X72">
+        <v>2.37</v>
+      </c>
+      <c r="Y72">
+        <v>3.2</v>
+      </c>
+      <c r="Z72">
+        <v>1.3</v>
+      </c>
+      <c r="AA72">
+        <v>8.75</v>
+      </c>
+      <c r="AB72">
+        <v>1.06</v>
+      </c>
+      <c r="AC72">
+        <v>2.5</v>
+      </c>
+      <c r="AD72">
+        <v>3</v>
+      </c>
+      <c r="AE72">
+        <v>2.95</v>
+      </c>
+      <c r="AF72">
+        <v>1.1</v>
+      </c>
+      <c r="AG72">
+        <v>6.5</v>
+      </c>
+      <c r="AH72">
+        <v>1.56</v>
+      </c>
+      <c r="AI72">
+        <v>2.27</v>
+      </c>
+      <c r="AJ72">
+        <v>2.4</v>
+      </c>
+      <c r="AK72">
+        <v>1.53</v>
+      </c>
+      <c r="AL72">
+        <v>1.95</v>
+      </c>
+      <c r="AM72">
+        <v>1.75</v>
+      </c>
+      <c r="AN72">
+        <v>1.38</v>
+      </c>
+      <c r="AO72">
+        <v>1.38</v>
+      </c>
+      <c r="AP72">
+        <v>1.49</v>
+      </c>
+      <c r="AQ72">
+        <v>1.33</v>
+      </c>
+      <c r="AR72">
+        <v>1.33</v>
+      </c>
+      <c r="AS72">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>1.75</v>
+      </c>
+      <c r="AU72">
+        <v>1.69</v>
+      </c>
+      <c r="AV72">
+        <v>1.48</v>
+      </c>
+      <c r="AW72">
+        <v>3.17</v>
+      </c>
+      <c r="AX72">
+        <v>1.66</v>
+      </c>
+      <c r="AY72">
+        <v>7.4</v>
+      </c>
+      <c r="AZ72">
+        <v>2.81</v>
+      </c>
+      <c r="BA72">
+        <v>1.48</v>
+      </c>
+      <c r="BB72">
+        <v>1.87</v>
+      </c>
+      <c r="BC72">
+        <v>2.46</v>
+      </c>
+      <c r="BD72">
+        <v>3.42</v>
+      </c>
+      <c r="BE72">
+        <v>4.3</v>
+      </c>
+      <c r="BF72">
+        <v>4</v>
+      </c>
+      <c r="BG72">
+        <v>4</v>
+      </c>
+      <c r="BH72">
+        <v>8</v>
+      </c>
+      <c r="BI72">
+        <v>6</v>
+      </c>
+      <c r="BJ72">
+        <v>12</v>
+      </c>
+      <c r="BK72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5240154</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44999.83333333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" t="s">
+        <v>83</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>138</v>
+      </c>
+      <c r="P73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q73">
+        <v>6</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>2.4</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>4.75</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>2.62</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <v>1.36</v>
+      </c>
+      <c r="AA73">
+        <v>7.5</v>
+      </c>
+      <c r="AB73">
+        <v>1.07</v>
+      </c>
+      <c r="AC73">
+        <v>1.79</v>
+      </c>
+      <c r="AD73">
+        <v>3.44</v>
+      </c>
+      <c r="AE73">
+        <v>5.03</v>
+      </c>
+      <c r="AF73">
+        <v>1.08</v>
+      </c>
+      <c r="AG73">
+        <v>7</v>
+      </c>
+      <c r="AH73">
+        <v>1.4</v>
+      </c>
+      <c r="AI73">
+        <v>2.75</v>
+      </c>
+      <c r="AJ73">
+        <v>2.27</v>
+      </c>
+      <c r="AK73">
+        <v>1.59</v>
+      </c>
+      <c r="AL73">
+        <v>2.1</v>
+      </c>
+      <c r="AM73">
+        <v>1.67</v>
+      </c>
+      <c r="AN73">
+        <v>1.17</v>
+      </c>
+      <c r="AO73">
+        <v>1.3</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>1.5</v>
+      </c>
+      <c r="AR73">
+        <v>0.67</v>
+      </c>
+      <c r="AS73">
+        <v>2</v>
+      </c>
+      <c r="AT73">
+        <v>0.5</v>
+      </c>
+      <c r="AU73">
+        <v>1.76</v>
+      </c>
+      <c r="AV73">
+        <v>1.31</v>
+      </c>
+      <c r="AW73">
+        <v>3.07</v>
+      </c>
+      <c r="AX73">
+        <v>1.76</v>
+      </c>
+      <c r="AY73">
+        <v>7.4</v>
+      </c>
+      <c r="AZ73">
+        <v>2.57</v>
+      </c>
+      <c r="BA73">
+        <v>1.41</v>
+      </c>
+      <c r="BB73">
+        <v>1.76</v>
+      </c>
+      <c r="BC73">
+        <v>2.27</v>
+      </c>
+      <c r="BD73">
+        <v>3.08</v>
+      </c>
+      <c r="BE73">
+        <v>4.2</v>
+      </c>
+      <c r="BF73">
+        <v>6</v>
+      </c>
+      <c r="BG73">
+        <v>2</v>
+      </c>
+      <c r="BH73">
+        <v>10</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>16</v>
+      </c>
+      <c r="BK73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5240161</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44999.92361111111</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>82</v>
+      </c>
+      <c r="H74" t="s">
+        <v>77</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>139</v>
+      </c>
+      <c r="P74" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q74">
+        <v>7</v>
+      </c>
+      <c r="R74">
+        <v>4</v>
+      </c>
+      <c r="S74">
+        <v>11</v>
+      </c>
+      <c r="T74">
+        <v>3.1</v>
+      </c>
+      <c r="U74">
+        <v>2</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>1.49</v>
+      </c>
+      <c r="X74">
+        <v>2.4</v>
+      </c>
+      <c r="Y74">
+        <v>3.25</v>
+      </c>
+      <c r="Z74">
+        <v>1.29</v>
+      </c>
+      <c r="AA74">
+        <v>9.25</v>
+      </c>
+      <c r="AB74">
+        <v>1.05</v>
+      </c>
+      <c r="AC74">
+        <v>2.52</v>
+      </c>
+      <c r="AD74">
+        <v>2.97</v>
+      </c>
+      <c r="AE74">
+        <v>3.22</v>
+      </c>
+      <c r="AF74">
+        <v>1.1</v>
+      </c>
+      <c r="AG74">
+        <v>6.5</v>
+      </c>
+      <c r="AH74">
+        <v>1.42</v>
+      </c>
+      <c r="AI74">
+        <v>2.75</v>
+      </c>
+      <c r="AJ74">
+        <v>2.3</v>
+      </c>
+      <c r="AK74">
+        <v>1.58</v>
+      </c>
+      <c r="AL74">
+        <v>1.98</v>
+      </c>
+      <c r="AM74">
+        <v>1.72</v>
+      </c>
+      <c r="AN74">
+        <v>1.35</v>
+      </c>
+      <c r="AO74">
+        <v>1.34</v>
+      </c>
+      <c r="AP74">
+        <v>1.58</v>
+      </c>
+      <c r="AQ74">
+        <v>0.5</v>
+      </c>
+      <c r="AR74">
+        <v>2</v>
+      </c>
+      <c r="AS74">
+        <v>1.33</v>
+      </c>
+      <c r="AT74">
+        <v>1.5</v>
+      </c>
+      <c r="AU74">
+        <v>2.32</v>
+      </c>
+      <c r="AV74">
+        <v>1.64</v>
+      </c>
+      <c r="AW74">
+        <v>3.96</v>
+      </c>
+      <c r="AX74">
+        <v>1.77</v>
+      </c>
+      <c r="AY74">
+        <v>7.4</v>
+      </c>
+      <c r="AZ74">
+        <v>2.54</v>
+      </c>
+      <c r="BA74">
+        <v>1.4</v>
+      </c>
+      <c r="BB74">
+        <v>1.74</v>
+      </c>
+      <c r="BC74">
+        <v>2.25</v>
+      </c>
+      <c r="BD74">
+        <v>3.04</v>
+      </c>
+      <c r="BE74">
+        <v>4.2</v>
+      </c>
+      <c r="BF74">
+        <v>11</v>
+      </c>
+      <c r="BG74">
+        <v>4</v>
+      </c>
+      <c r="BH74">
+        <v>4</v>
+      </c>
+      <c r="BI74">
+        <v>4</v>
+      </c>
+      <c r="BJ74">
+        <v>15</v>
+      </c>
+      <c r="BK74">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT12" t="n">
         <v>1.33</v>
@@ -3745,7 +3745,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT17" t="n">
         <v>0.6</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -5572,7 +5572,7 @@
         <v>1.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU25" t="n">
         <v>2.16</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.8</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT34" t="n">
         <v>0.8</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT36" t="n">
         <v>0.67</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT41" t="n">
         <v>1.25</v>
@@ -9023,7 +9023,7 @@
         <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -10241,7 +10241,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU48" t="n">
         <v>2.44</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT56" t="n">
         <v>0.67</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT57" t="n">
         <v>1.25</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
         <v>0.75</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -14910,7 +14910,7 @@
         <v>2.25</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU71" t="n">
         <v>2.08</v>
@@ -15571,6 +15571,615 @@
       </c>
       <c r="BK74" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5240167</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45002.91666666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['9', '80']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>7</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5240171</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>8</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5240165</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45003.75694444445</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>10</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>15</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,10 +445,13 @@
     <t>['4', '16']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['27', '57']</t>
+  </si>
+  <si>
     <t>['59']</t>
-  </si>
-  <si>
-    <t>['16']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -918,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
         <v>1.25</v>
@@ -1353,7 +1356,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1544,7 +1547,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1926,7 +1929,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2207,7 +2210,7 @@
         <v>1.8</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2308,7 +2311,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2690,7 +2693,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2777,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT10">
         <v>1.25</v>
@@ -3072,7 +3075,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3263,7 +3266,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3454,7 +3457,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3544,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4027,7 +4030,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4218,7 +4221,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4409,7 +4412,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4600,7 +4603,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4881,7 +4884,7 @@
         <v>0.75</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5069,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT22">
         <v>0.33</v>
@@ -5364,7 +5367,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5454,7 +5457,7 @@
         <v>2.5</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>2.08</v>
@@ -5937,7 +5940,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6128,7 +6131,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6319,7 +6322,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6510,7 +6513,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6892,7 +6895,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7083,7 +7086,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7274,7 +7277,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7552,10 +7555,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT35">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>2.19</v>
@@ -7847,7 +7850,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8038,7 +8041,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8420,7 +8423,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8510,7 +8513,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU40">
         <v>1.58</v>
@@ -8611,7 +8614,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8802,7 +8805,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8889,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT42">
         <v>1.75</v>
@@ -8993,7 +8996,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -10330,7 +10333,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10521,7 +10524,7 @@
         <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11094,7 +11097,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11285,7 +11288,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11372,10 +11375,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU55">
         <v>1.71</v>
@@ -11476,7 +11479,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11667,7 +11670,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12431,7 +12434,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12622,7 +12625,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12712,7 +12715,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU62">
         <v>1.61</v>
@@ -12813,7 +12816,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -12900,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -13004,7 +13007,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13195,7 +13198,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13386,7 +13389,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14150,7 +14153,7 @@
         <v>125</v>
       </c>
       <c r="P70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14532,7 +14535,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15105,7 +15108,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15296,7 +15299,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15678,7 +15681,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15869,7 +15872,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16251,7 +16254,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16584,6 +16587,388 @@
       </c>
       <c r="BK82">
         <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5240168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45005.84027777778</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>65</v>
+      </c>
+      <c r="H83" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83" t="s">
+        <v>143</v>
+      </c>
+      <c r="P83" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q83">
+        <v>6</v>
+      </c>
+      <c r="R83">
+        <v>4</v>
+      </c>
+      <c r="S83">
+        <v>10</v>
+      </c>
+      <c r="T83">
+        <v>3.25</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
+        <v>3.45</v>
+      </c>
+      <c r="W83">
+        <v>1.49</v>
+      </c>
+      <c r="X83">
+        <v>2.45</v>
+      </c>
+      <c r="Y83">
+        <v>3.25</v>
+      </c>
+      <c r="Z83">
+        <v>1.3</v>
+      </c>
+      <c r="AA83">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB83">
+        <v>1.04</v>
+      </c>
+      <c r="AC83">
+        <v>2.44</v>
+      </c>
+      <c r="AD83">
+        <v>3.2</v>
+      </c>
+      <c r="AE83">
+        <v>2.67</v>
+      </c>
+      <c r="AF83">
+        <v>1.08</v>
+      </c>
+      <c r="AG83">
+        <v>8</v>
+      </c>
+      <c r="AH83">
+        <v>1.4</v>
+      </c>
+      <c r="AI83">
+        <v>2.8</v>
+      </c>
+      <c r="AJ83">
+        <v>2.07</v>
+      </c>
+      <c r="AK83">
+        <v>1.76</v>
+      </c>
+      <c r="AL83">
+        <v>1.93</v>
+      </c>
+      <c r="AM83">
+        <v>1.83</v>
+      </c>
+      <c r="AN83">
+        <v>1.45</v>
+      </c>
+      <c r="AO83">
+        <v>1.37</v>
+      </c>
+      <c r="AP83">
+        <v>1.5</v>
+      </c>
+      <c r="AQ83">
+        <v>1.25</v>
+      </c>
+      <c r="AR83">
+        <v>0.75</v>
+      </c>
+      <c r="AS83">
+        <v>1.2</v>
+      </c>
+      <c r="AT83">
+        <v>0.8</v>
+      </c>
+      <c r="AU83">
+        <v>1.63</v>
+      </c>
+      <c r="AV83">
+        <v>1.61</v>
+      </c>
+      <c r="AW83">
+        <v>3.24</v>
+      </c>
+      <c r="AX83">
+        <v>1.82</v>
+      </c>
+      <c r="AY83">
+        <v>8</v>
+      </c>
+      <c r="AZ83">
+        <v>2.39</v>
+      </c>
+      <c r="BA83">
+        <v>1.26</v>
+      </c>
+      <c r="BB83">
+        <v>1.53</v>
+      </c>
+      <c r="BC83">
+        <v>2</v>
+      </c>
+      <c r="BD83">
+        <v>2.55</v>
+      </c>
+      <c r="BE83">
+        <v>3.34</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>3</v>
+      </c>
+      <c r="BH83">
+        <v>8</v>
+      </c>
+      <c r="BI83">
+        <v>9</v>
+      </c>
+      <c r="BJ83">
+        <v>12</v>
+      </c>
+      <c r="BK83">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5240164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45005.93055555555</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>144</v>
+      </c>
+      <c r="P84" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>4</v>
+      </c>
+      <c r="S84">
+        <v>6</v>
+      </c>
+      <c r="T84">
+        <v>3.6</v>
+      </c>
+      <c r="U84">
+        <v>1.96</v>
+      </c>
+      <c r="V84">
+        <v>3.28</v>
+      </c>
+      <c r="W84">
+        <v>1.52</v>
+      </c>
+      <c r="X84">
+        <v>2.44</v>
+      </c>
+      <c r="Y84">
+        <v>3.44</v>
+      </c>
+      <c r="Z84">
+        <v>1.29</v>
+      </c>
+      <c r="AA84">
+        <v>9.4</v>
+      </c>
+      <c r="AB84">
+        <v>1.04</v>
+      </c>
+      <c r="AC84">
+        <v>2.64</v>
+      </c>
+      <c r="AD84">
+        <v>3.25</v>
+      </c>
+      <c r="AE84">
+        <v>2.42</v>
+      </c>
+      <c r="AF84">
+        <v>1.06</v>
+      </c>
+      <c r="AG84">
+        <v>6.85</v>
+      </c>
+      <c r="AH84">
+        <v>1.43</v>
+      </c>
+      <c r="AI84">
+        <v>2.57</v>
+      </c>
+      <c r="AJ84">
+        <v>2.1</v>
+      </c>
+      <c r="AK84">
+        <v>1.74</v>
+      </c>
+      <c r="AL84">
+        <v>2</v>
+      </c>
+      <c r="AM84">
+        <v>1.77</v>
+      </c>
+      <c r="AN84">
+        <v>1.5</v>
+      </c>
+      <c r="AO84">
+        <v>1.36</v>
+      </c>
+      <c r="AP84">
+        <v>1.43</v>
+      </c>
+      <c r="AQ84">
+        <v>1.33</v>
+      </c>
+      <c r="AR84">
+        <v>1</v>
+      </c>
+      <c r="AS84">
+        <v>1.75</v>
+      </c>
+      <c r="AT84">
+        <v>0.8</v>
+      </c>
+      <c r="AU84">
+        <v>1.75</v>
+      </c>
+      <c r="AV84">
+        <v>1.25</v>
+      </c>
+      <c r="AW84">
+        <v>3</v>
+      </c>
+      <c r="AX84">
+        <v>2.01</v>
+      </c>
+      <c r="AY84">
+        <v>7.3</v>
+      </c>
+      <c r="AZ84">
+        <v>2.18</v>
+      </c>
+      <c r="BA84">
+        <v>1.41</v>
+      </c>
+      <c r="BB84">
+        <v>1.75</v>
+      </c>
+      <c r="BC84">
+        <v>2.27</v>
+      </c>
+      <c r="BD84">
+        <v>3.04</v>
+      </c>
+      <c r="BE84">
+        <v>4.1</v>
+      </c>
+      <c r="BF84">
+        <v>3</v>
+      </c>
+      <c r="BG84">
+        <v>8</v>
+      </c>
+      <c r="BH84">
+        <v>5</v>
+      </c>
+      <c r="BI84">
+        <v>2</v>
+      </c>
+      <c r="BJ84">
+        <v>8</v>
+      </c>
+      <c r="BK84">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,15 @@
     <t>['27', '57']</t>
   </si>
   <si>
+    <t>['58', '90+2']</t>
+  </si>
+  <si>
+    <t>['37', '70']</t>
+  </si>
+  <si>
+    <t>['59', '86']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -560,6 +569,9 @@
   </si>
   <si>
     <t>['22', '26']</t>
+  </si>
+  <si>
+    <t>['20', '27']</t>
   </si>
 </sst>
 </file>
@@ -921,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1356,7 +1368,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1637,7 +1649,7 @@
         <v>2.5</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1929,7 +1941,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2311,7 +2323,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2693,7 +2705,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3075,7 +3087,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3266,7 +3278,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3457,7 +3469,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3926,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT16">
         <v>0.6</v>
@@ -4030,7 +4042,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4221,7 +4233,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4412,7 +4424,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4603,7 +4615,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5075,7 +5087,7 @@
         <v>1.2</v>
       </c>
       <c r="AT22">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU22">
         <v>1.95</v>
@@ -5367,7 +5379,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5940,7 +5952,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6131,7 +6143,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6322,7 +6334,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6513,7 +6525,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6600,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT30">
         <v>0.5</v>
@@ -6895,7 +6907,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7086,7 +7098,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7176,7 +7188,7 @@
         <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7277,7 +7289,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7364,7 +7376,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT34">
         <v>0.8</v>
@@ -7850,7 +7862,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8041,7 +8053,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8128,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT38">
         <v>0.25</v>
@@ -8322,7 +8334,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU39">
         <v>1.47</v>
@@ -8423,7 +8435,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8614,7 +8626,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8701,7 +8713,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT41">
         <v>1.2</v>
@@ -8805,7 +8817,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -8996,7 +9008,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9847,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT47">
         <v>1.25</v>
@@ -10333,7 +10345,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10996,7 +11008,7 @@
         <v>2.6</v>
       </c>
       <c r="AT53">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU53">
         <v>1.73</v>
@@ -11097,7 +11109,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11288,7 +11300,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11479,7 +11491,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11566,7 +11578,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT56">
         <v>0.5</v>
@@ -11670,7 +11682,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12330,7 +12342,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12434,7 +12446,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12625,7 +12637,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12816,7 +12828,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -12906,7 +12918,7 @@
         <v>1.75</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13007,7 +13019,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13097,7 +13109,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13198,7 +13210,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13389,7 +13401,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14153,7 +14165,7 @@
         <v>125</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14535,7 +14547,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14625,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15108,7 +15120,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15299,7 +15311,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15389,7 +15401,7 @@
         <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU76">
         <v>1.7</v>
@@ -15577,7 +15589,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AT77">
         <v>0.6</v>
@@ -15681,7 +15693,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15872,7 +15884,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16150,7 +16162,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT80">
         <v>0.5</v>
@@ -16254,7 +16266,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16341,7 +16353,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT81">
         <v>1.2</v>
@@ -16969,6 +16981,579 @@
       </c>
       <c r="BK84">
         <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5240119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45007.91666666666</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>145</v>
+      </c>
+      <c r="P85" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>5</v>
+      </c>
+      <c r="T85">
+        <v>2.65</v>
+      </c>
+      <c r="U85">
+        <v>1.9</v>
+      </c>
+      <c r="V85">
+        <v>4.75</v>
+      </c>
+      <c r="W85">
+        <v>1.54</v>
+      </c>
+      <c r="X85">
+        <v>2.34</v>
+      </c>
+      <c r="Y85">
+        <v>3.4</v>
+      </c>
+      <c r="Z85">
+        <v>1.28</v>
+      </c>
+      <c r="AA85">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AB85">
+        <v>1.04</v>
+      </c>
+      <c r="AC85">
+        <v>1.67</v>
+      </c>
+      <c r="AD85">
+        <v>3.45</v>
+      </c>
+      <c r="AE85">
+        <v>4.85</v>
+      </c>
+      <c r="AF85">
+        <v>1.1</v>
+      </c>
+      <c r="AG85">
+        <v>6.5</v>
+      </c>
+      <c r="AH85">
+        <v>1.4</v>
+      </c>
+      <c r="AI85">
+        <v>2.75</v>
+      </c>
+      <c r="AJ85">
+        <v>2.19</v>
+      </c>
+      <c r="AK85">
+        <v>1.6</v>
+      </c>
+      <c r="AL85">
+        <v>2.05</v>
+      </c>
+      <c r="AM85">
+        <v>1.72</v>
+      </c>
+      <c r="AN85">
+        <v>1.17</v>
+      </c>
+      <c r="AO85">
+        <v>1.3</v>
+      </c>
+      <c r="AP85">
+        <v>1.8</v>
+      </c>
+      <c r="AQ85">
+        <v>2.33</v>
+      </c>
+      <c r="AR85">
+        <v>1.75</v>
+      </c>
+      <c r="AS85">
+        <v>2.5</v>
+      </c>
+      <c r="AT85">
+        <v>1.4</v>
+      </c>
+      <c r="AU85">
+        <v>1.6</v>
+      </c>
+      <c r="AV85">
+        <v>1.4</v>
+      </c>
+      <c r="AW85">
+        <v>3</v>
+      </c>
+      <c r="AX85">
+        <v>1.4</v>
+      </c>
+      <c r="AY85">
+        <v>10.5</v>
+      </c>
+      <c r="AZ85">
+        <v>3.6</v>
+      </c>
+      <c r="BA85">
+        <v>1.5</v>
+      </c>
+      <c r="BB85">
+        <v>1.85</v>
+      </c>
+      <c r="BC85">
+        <v>2.38</v>
+      </c>
+      <c r="BD85">
+        <v>2.88</v>
+      </c>
+      <c r="BE85">
+        <v>4.1</v>
+      </c>
+      <c r="BF85">
+        <v>6</v>
+      </c>
+      <c r="BG85">
+        <v>5</v>
+      </c>
+      <c r="BH85">
+        <v>3</v>
+      </c>
+      <c r="BI85">
+        <v>4</v>
+      </c>
+      <c r="BJ85">
+        <v>9</v>
+      </c>
+      <c r="BK85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5240102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45008.83333333334</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>83</v>
+      </c>
+      <c r="H86" t="s">
+        <v>68</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>146</v>
+      </c>
+      <c r="P86" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q86">
+        <v>12</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>14</v>
+      </c>
+      <c r="T86">
+        <v>3.2</v>
+      </c>
+      <c r="U86">
+        <v>1.91</v>
+      </c>
+      <c r="V86">
+        <v>3.75</v>
+      </c>
+      <c r="W86">
+        <v>1.45</v>
+      </c>
+      <c r="X86">
+        <v>2.63</v>
+      </c>
+      <c r="Y86">
+        <v>3.55</v>
+      </c>
+      <c r="Z86">
+        <v>1.26</v>
+      </c>
+      <c r="AA86">
+        <v>10.5</v>
+      </c>
+      <c r="AB86">
+        <v>1.04</v>
+      </c>
+      <c r="AC86">
+        <v>2.52</v>
+      </c>
+      <c r="AD86">
+        <v>2.78</v>
+      </c>
+      <c r="AE86">
+        <v>2.83</v>
+      </c>
+      <c r="AF86">
+        <v>1.1</v>
+      </c>
+      <c r="AG86">
+        <v>8</v>
+      </c>
+      <c r="AH86">
+        <v>1.51</v>
+      </c>
+      <c r="AI86">
+        <v>2.4</v>
+      </c>
+      <c r="AJ86">
+        <v>2.44</v>
+      </c>
+      <c r="AK86">
+        <v>1.52</v>
+      </c>
+      <c r="AL86">
+        <v>1.91</v>
+      </c>
+      <c r="AM86">
+        <v>1.8</v>
+      </c>
+      <c r="AN86">
+        <v>1.38</v>
+      </c>
+      <c r="AO86">
+        <v>1.43</v>
+      </c>
+      <c r="AP86">
+        <v>1.5</v>
+      </c>
+      <c r="AQ86">
+        <v>1.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.5</v>
+      </c>
+      <c r="AS86">
+        <v>1.2</v>
+      </c>
+      <c r="AT86">
+        <v>1.33</v>
+      </c>
+      <c r="AU86">
+        <v>1.81</v>
+      </c>
+      <c r="AV86">
+        <v>1.11</v>
+      </c>
+      <c r="AW86">
+        <v>2.92</v>
+      </c>
+      <c r="AX86">
+        <v>1.59</v>
+      </c>
+      <c r="AY86">
+        <v>8</v>
+      </c>
+      <c r="AZ86">
+        <v>2.9</v>
+      </c>
+      <c r="BA86">
+        <v>1.5</v>
+      </c>
+      <c r="BB86">
+        <v>1.92</v>
+      </c>
+      <c r="BC86">
+        <v>2.6</v>
+      </c>
+      <c r="BD86">
+        <v>3.34</v>
+      </c>
+      <c r="BE86">
+        <v>4.7</v>
+      </c>
+      <c r="BF86">
+        <v>6</v>
+      </c>
+      <c r="BG86">
+        <v>5</v>
+      </c>
+      <c r="BH86">
+        <v>8</v>
+      </c>
+      <c r="BI86">
+        <v>3</v>
+      </c>
+      <c r="BJ86">
+        <v>14</v>
+      </c>
+      <c r="BK86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5240149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45008.92361111111</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87" t="s">
+        <v>147</v>
+      </c>
+      <c r="P87" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>8</v>
+      </c>
+      <c r="T87">
+        <v>2.87</v>
+      </c>
+      <c r="U87">
+        <v>1.94</v>
+      </c>
+      <c r="V87">
+        <v>3.9</v>
+      </c>
+      <c r="W87">
+        <v>1.52</v>
+      </c>
+      <c r="X87">
+        <v>2.44</v>
+      </c>
+      <c r="Y87">
+        <v>3.48</v>
+      </c>
+      <c r="Z87">
+        <v>1.28</v>
+      </c>
+      <c r="AA87">
+        <v>9.5</v>
+      </c>
+      <c r="AB87">
+        <v>1.04</v>
+      </c>
+      <c r="AC87">
+        <v>2.17</v>
+      </c>
+      <c r="AD87">
+        <v>2.93</v>
+      </c>
+      <c r="AE87">
+        <v>3.25</v>
+      </c>
+      <c r="AF87">
+        <v>1.11</v>
+      </c>
+      <c r="AG87">
+        <v>6</v>
+      </c>
+      <c r="AH87">
+        <v>1.53</v>
+      </c>
+      <c r="AI87">
+        <v>2.38</v>
+      </c>
+      <c r="AJ87">
+        <v>2.43</v>
+      </c>
+      <c r="AK87">
+        <v>1.52</v>
+      </c>
+      <c r="AL87">
+        <v>2.1</v>
+      </c>
+      <c r="AM87">
+        <v>1.71</v>
+      </c>
+      <c r="AN87">
+        <v>1.27</v>
+      </c>
+      <c r="AO87">
+        <v>1.35</v>
+      </c>
+      <c r="AP87">
+        <v>1.52</v>
+      </c>
+      <c r="AQ87">
+        <v>2.5</v>
+      </c>
+      <c r="AR87">
+        <v>0.33</v>
+      </c>
+      <c r="AS87">
+        <v>2.6</v>
+      </c>
+      <c r="AT87">
+        <v>0.25</v>
+      </c>
+      <c r="AU87">
+        <v>1.88</v>
+      </c>
+      <c r="AV87">
+        <v>1.39</v>
+      </c>
+      <c r="AW87">
+        <v>3.27</v>
+      </c>
+      <c r="AX87">
+        <v>1.64</v>
+      </c>
+      <c r="AY87">
+        <v>7.5</v>
+      </c>
+      <c r="AZ87">
+        <v>2.78</v>
+      </c>
+      <c r="BA87">
+        <v>1.5</v>
+      </c>
+      <c r="BB87">
+        <v>1.88</v>
+      </c>
+      <c r="BC87">
+        <v>2.38</v>
+      </c>
+      <c r="BD87">
+        <v>3.14</v>
+      </c>
+      <c r="BE87">
+        <v>4.7</v>
+      </c>
+      <c r="BF87">
+        <v>9</v>
+      </c>
+      <c r="BG87">
+        <v>3</v>
+      </c>
+      <c r="BH87">
+        <v>9</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>18</v>
+      </c>
+      <c r="BK87">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,21 @@
     <t>['59', '86']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['37', '76']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['48', '84']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -532,9 +547,6 @@
     <t>['14']</t>
   </si>
   <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
@@ -572,6 +584,12 @@
   </si>
   <si>
     <t>['20', '27']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['32']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK87"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1285,7 @@
         <v>1.2</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1368,7 +1386,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1458,7 +1476,7 @@
         <v>1.67</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1646,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT4">
         <v>0.25</v>
@@ -1941,7 +1959,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2028,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2219,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT7">
         <v>0.8</v>
@@ -2323,7 +2341,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2705,7 +2723,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -2795,7 +2813,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2983,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT11">
         <v>1.2</v>
@@ -3087,7 +3105,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3278,7 +3296,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3368,7 +3386,7 @@
         <v>1.2</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3469,7 +3487,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4042,7 +4060,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4132,7 +4150,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU17">
         <v>2.06</v>
@@ -4233,7 +4251,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4424,7 +4442,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4615,7 +4633,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5278,7 +5296,7 @@
         <v>1.67</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.29</v>
@@ -5379,7 +5397,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5466,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT24">
         <v>0.8</v>
@@ -5848,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT26">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -5952,7 +5970,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6042,7 +6060,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.61</v>
@@ -6143,7 +6161,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6233,7 +6251,7 @@
         <v>1.6</v>
       </c>
       <c r="AT28">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU28">
         <v>1.46</v>
@@ -6334,7 +6352,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6525,7 +6543,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6806,7 +6824,7 @@
         <v>2.6</v>
       </c>
       <c r="AT31">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU31">
         <v>1.86</v>
@@ -6907,7 +6925,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -6994,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7098,7 +7116,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7289,7 +7307,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7379,7 +7397,7 @@
         <v>1.2</v>
       </c>
       <c r="AT34">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7862,7 +7880,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8053,7 +8071,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8435,7 +8453,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8626,7 +8644,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8817,7 +8835,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9008,7 +9026,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9286,10 +9304,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT44">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>2.03</v>
@@ -9671,7 +9689,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU46">
         <v>1.65</v>
@@ -9862,7 +9880,7 @@
         <v>2.6</v>
       </c>
       <c r="AT47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>2.24</v>
@@ -10345,7 +10363,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10432,7 +10450,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -10623,10 +10641,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT51">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU51">
         <v>2.46</v>
@@ -10814,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11109,7 +11127,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11199,7 +11217,7 @@
         <v>0.75</v>
       </c>
       <c r="AT54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11300,7 +11318,7 @@
         <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11491,7 +11509,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11682,7 +11700,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12446,7 +12464,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12637,7 +12655,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12828,7 +12846,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13019,7 +13037,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13106,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT64">
         <v>1.4</v>
@@ -13210,7 +13228,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13300,7 +13318,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13401,7 +13419,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13491,7 +13509,7 @@
         <v>0.75</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.84</v>
@@ -13679,7 +13697,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
         <v>1.33</v>
@@ -13873,7 +13891,7 @@
         <v>2.6</v>
       </c>
       <c r="AT68">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU68">
         <v>1.75</v>
@@ -14061,10 +14079,10 @@
         <v>1</v>
       </c>
       <c r="AS69">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU69">
         <v>2.01</v>
@@ -14165,7 +14183,7 @@
         <v>125</v>
       </c>
       <c r="P70" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14255,7 +14273,7 @@
         <v>1.2</v>
       </c>
       <c r="AT70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>2.31</v>
@@ -14443,7 +14461,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT71">
         <v>0.6</v>
@@ -14547,7 +14565,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14825,7 +14843,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT73">
         <v>0.5</v>
@@ -15120,7 +15138,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15311,7 +15329,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15693,7 +15711,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15884,7 +15902,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16266,7 +16284,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -17221,7 +17239,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17554,6 +17572,961 @@
       </c>
       <c r="BK87">
         <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5240182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45009.92361111111</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>148</v>
+      </c>
+      <c r="P88" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q88">
+        <v>4</v>
+      </c>
+      <c r="R88">
+        <v>7</v>
+      </c>
+      <c r="S88">
+        <v>11</v>
+      </c>
+      <c r="T88">
+        <v>2.33</v>
+      </c>
+      <c r="U88">
+        <v>1.99</v>
+      </c>
+      <c r="V88">
+        <v>6.5</v>
+      </c>
+      <c r="W88">
+        <v>1.55</v>
+      </c>
+      <c r="X88">
+        <v>2.38</v>
+      </c>
+      <c r="Y88">
+        <v>3.56</v>
+      </c>
+      <c r="Z88">
+        <v>1.27</v>
+      </c>
+      <c r="AA88">
+        <v>10</v>
+      </c>
+      <c r="AB88">
+        <v>1.03</v>
+      </c>
+      <c r="AC88">
+        <v>1.67</v>
+      </c>
+      <c r="AD88">
+        <v>3.5</v>
+      </c>
+      <c r="AE88">
+        <v>5.5</v>
+      </c>
+      <c r="AF88">
+        <v>1.1</v>
+      </c>
+      <c r="AG88">
+        <v>6.5</v>
+      </c>
+      <c r="AH88">
+        <v>1.44</v>
+      </c>
+      <c r="AI88">
+        <v>2.4</v>
+      </c>
+      <c r="AJ88">
+        <v>2.38</v>
+      </c>
+      <c r="AK88">
+        <v>1.57</v>
+      </c>
+      <c r="AL88">
+        <v>2.4</v>
+      </c>
+      <c r="AM88">
+        <v>1.54</v>
+      </c>
+      <c r="AN88">
+        <v>1.13</v>
+      </c>
+      <c r="AO88">
+        <v>1.3</v>
+      </c>
+      <c r="AP88">
+        <v>2.19</v>
+      </c>
+      <c r="AQ88">
+        <v>2.5</v>
+      </c>
+      <c r="AR88">
+        <v>1.25</v>
+      </c>
+      <c r="AS88">
+        <v>2.6</v>
+      </c>
+      <c r="AT88">
+        <v>1</v>
+      </c>
+      <c r="AU88">
+        <v>1.85</v>
+      </c>
+      <c r="AV88">
+        <v>1.67</v>
+      </c>
+      <c r="AW88">
+        <v>3.52</v>
+      </c>
+      <c r="AX88">
+        <v>1.41</v>
+      </c>
+      <c r="AY88">
+        <v>8.5</v>
+      </c>
+      <c r="AZ88">
+        <v>3.66</v>
+      </c>
+      <c r="BA88">
+        <v>1.48</v>
+      </c>
+      <c r="BB88">
+        <v>1.85</v>
+      </c>
+      <c r="BC88">
+        <v>2.5</v>
+      </c>
+      <c r="BD88">
+        <v>2.98</v>
+      </c>
+      <c r="BE88">
+        <v>4.1</v>
+      </c>
+      <c r="BF88">
+        <v>3</v>
+      </c>
+      <c r="BG88">
+        <v>4</v>
+      </c>
+      <c r="BH88">
+        <v>6</v>
+      </c>
+      <c r="BI88">
+        <v>4</v>
+      </c>
+      <c r="BJ88">
+        <v>9</v>
+      </c>
+      <c r="BK88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:63">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5240177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45010.66666666666</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
+        <v>149</v>
+      </c>
+      <c r="P89" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>7</v>
+      </c>
+      <c r="S89">
+        <v>10</v>
+      </c>
+      <c r="T89">
+        <v>2.75</v>
+      </c>
+      <c r="U89">
+        <v>1.95</v>
+      </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
+      <c r="W89">
+        <v>1.5</v>
+      </c>
+      <c r="X89">
+        <v>2.5</v>
+      </c>
+      <c r="Y89">
+        <v>3.25</v>
+      </c>
+      <c r="Z89">
+        <v>1.33</v>
+      </c>
+      <c r="AA89">
+        <v>8</v>
+      </c>
+      <c r="AB89">
+        <v>1.06</v>
+      </c>
+      <c r="AC89">
+        <v>2.08</v>
+      </c>
+      <c r="AD89">
+        <v>3.15</v>
+      </c>
+      <c r="AE89">
+        <v>3.3</v>
+      </c>
+      <c r="AF89">
+        <v>1.1</v>
+      </c>
+      <c r="AG89">
+        <v>6.5</v>
+      </c>
+      <c r="AH89">
+        <v>1.44</v>
+      </c>
+      <c r="AI89">
+        <v>2.62</v>
+      </c>
+      <c r="AJ89">
+        <v>2.3</v>
+      </c>
+      <c r="AK89">
+        <v>1.5</v>
+      </c>
+      <c r="AL89">
+        <v>2.05</v>
+      </c>
+      <c r="AM89">
+        <v>1.7</v>
+      </c>
+      <c r="AN89">
+        <v>1.22</v>
+      </c>
+      <c r="AO89">
+        <v>1.33</v>
+      </c>
+      <c r="AP89">
+        <v>1.73</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>0.75</v>
+      </c>
+      <c r="AS89">
+        <v>1</v>
+      </c>
+      <c r="AT89">
+        <v>0.8</v>
+      </c>
+      <c r="AU89">
+        <v>1.59</v>
+      </c>
+      <c r="AV89">
+        <v>1.14</v>
+      </c>
+      <c r="AW89">
+        <v>2.73</v>
+      </c>
+      <c r="AX89">
+        <v>1.51</v>
+      </c>
+      <c r="AY89">
+        <v>8</v>
+      </c>
+      <c r="AZ89">
+        <v>3.17</v>
+      </c>
+      <c r="BA89">
+        <v>1.5</v>
+      </c>
+      <c r="BB89">
+        <v>1.8</v>
+      </c>
+      <c r="BC89">
+        <v>2.25</v>
+      </c>
+      <c r="BD89">
+        <v>3.25</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>3</v>
+      </c>
+      <c r="BG89">
+        <v>5</v>
+      </c>
+      <c r="BH89">
+        <v>4</v>
+      </c>
+      <c r="BI89">
+        <v>2</v>
+      </c>
+      <c r="BJ89">
+        <v>7</v>
+      </c>
+      <c r="BK89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:63">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5240179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45010.75694444445</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s">
+        <v>65</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>150</v>
+      </c>
+      <c r="P90" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q90">
+        <v>7</v>
+      </c>
+      <c r="R90">
+        <v>3</v>
+      </c>
+      <c r="S90">
+        <v>10</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>2</v>
+      </c>
+      <c r="V90">
+        <v>3.4</v>
+      </c>
+      <c r="W90">
+        <v>1.44</v>
+      </c>
+      <c r="X90">
+        <v>2.62</v>
+      </c>
+      <c r="Y90">
+        <v>3</v>
+      </c>
+      <c r="Z90">
+        <v>1.36</v>
+      </c>
+      <c r="AA90">
+        <v>7.5</v>
+      </c>
+      <c r="AB90">
+        <v>1.07</v>
+      </c>
+      <c r="AC90">
+        <v>1.91</v>
+      </c>
+      <c r="AD90">
+        <v>3</v>
+      </c>
+      <c r="AE90">
+        <v>4.2</v>
+      </c>
+      <c r="AF90">
+        <v>1.08</v>
+      </c>
+      <c r="AG90">
+        <v>7</v>
+      </c>
+      <c r="AH90">
+        <v>1.36</v>
+      </c>
+      <c r="AI90">
+        <v>3</v>
+      </c>
+      <c r="AJ90">
+        <v>2.25</v>
+      </c>
+      <c r="AK90">
+        <v>1.53</v>
+      </c>
+      <c r="AL90">
+        <v>1.85</v>
+      </c>
+      <c r="AM90">
+        <v>1.85</v>
+      </c>
+      <c r="AN90">
+        <v>1.36</v>
+      </c>
+      <c r="AO90">
+        <v>1.33</v>
+      </c>
+      <c r="AP90">
+        <v>1.55</v>
+      </c>
+      <c r="AQ90">
+        <v>2.25</v>
+      </c>
+      <c r="AR90">
+        <v>1.25</v>
+      </c>
+      <c r="AS90">
+        <v>2.4</v>
+      </c>
+      <c r="AT90">
+        <v>1</v>
+      </c>
+      <c r="AU90">
+        <v>2.01</v>
+      </c>
+      <c r="AV90">
+        <v>1.24</v>
+      </c>
+      <c r="AW90">
+        <v>3.25</v>
+      </c>
+      <c r="AX90">
+        <v>1.64</v>
+      </c>
+      <c r="AY90">
+        <v>8</v>
+      </c>
+      <c r="AZ90">
+        <v>2.67</v>
+      </c>
+      <c r="BA90">
+        <v>1.25</v>
+      </c>
+      <c r="BB90">
+        <v>1.57</v>
+      </c>
+      <c r="BC90">
+        <v>1.91</v>
+      </c>
+      <c r="BD90">
+        <v>2.4</v>
+      </c>
+      <c r="BE90">
+        <v>3.28</v>
+      </c>
+      <c r="BF90">
+        <v>6</v>
+      </c>
+      <c r="BG90">
+        <v>9</v>
+      </c>
+      <c r="BH90">
+        <v>5</v>
+      </c>
+      <c r="BI90">
+        <v>7</v>
+      </c>
+      <c r="BJ90">
+        <v>11</v>
+      </c>
+      <c r="BK90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:63">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5240178</v>
+      </c>
+      <c r="C91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45010.84722222222</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>151</v>
+      </c>
+      <c r="P91" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
+      </c>
+      <c r="S91">
+        <v>7</v>
+      </c>
+      <c r="T91">
+        <v>2.42</v>
+      </c>
+      <c r="U91">
+        <v>2.05</v>
+      </c>
+      <c r="V91">
+        <v>5.4</v>
+      </c>
+      <c r="W91">
+        <v>1.48</v>
+      </c>
+      <c r="X91">
+        <v>2.55</v>
+      </c>
+      <c r="Y91">
+        <v>3.22</v>
+      </c>
+      <c r="Z91">
+        <v>1.32</v>
+      </c>
+      <c r="AA91">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB91">
+        <v>1.05</v>
+      </c>
+      <c r="AC91">
+        <v>1.65</v>
+      </c>
+      <c r="AD91">
+        <v>3.3</v>
+      </c>
+      <c r="AE91">
+        <v>5.5</v>
+      </c>
+      <c r="AF91">
+        <v>1.07</v>
+      </c>
+      <c r="AG91">
+        <v>7.75</v>
+      </c>
+      <c r="AH91">
+        <v>1.37</v>
+      </c>
+      <c r="AI91">
+        <v>2.8</v>
+      </c>
+      <c r="AJ91">
+        <v>1.94</v>
+      </c>
+      <c r="AK91">
+        <v>1.78</v>
+      </c>
+      <c r="AL91">
+        <v>2.08</v>
+      </c>
+      <c r="AM91">
+        <v>1.71</v>
+      </c>
+      <c r="AN91">
+        <v>1.18</v>
+      </c>
+      <c r="AO91">
+        <v>1.3</v>
+      </c>
+      <c r="AP91">
+        <v>2.01</v>
+      </c>
+      <c r="AQ91">
+        <v>1.8</v>
+      </c>
+      <c r="AR91">
+        <v>0.8</v>
+      </c>
+      <c r="AS91">
+        <v>1.67</v>
+      </c>
+      <c r="AT91">
+        <v>0.83</v>
+      </c>
+      <c r="AU91">
+        <v>1.45</v>
+      </c>
+      <c r="AV91">
+        <v>1.45</v>
+      </c>
+      <c r="AW91">
+        <v>2.9</v>
+      </c>
+      <c r="AX91">
+        <v>1.45</v>
+      </c>
+      <c r="AY91">
+        <v>8.5</v>
+      </c>
+      <c r="AZ91">
+        <v>3.28</v>
+      </c>
+      <c r="BA91">
+        <v>1.3</v>
+      </c>
+      <c r="BB91">
+        <v>1.6</v>
+      </c>
+      <c r="BC91">
+        <v>2.04</v>
+      </c>
+      <c r="BD91">
+        <v>2.75</v>
+      </c>
+      <c r="BE91">
+        <v>3.64</v>
+      </c>
+      <c r="BF91">
+        <v>8</v>
+      </c>
+      <c r="BG91">
+        <v>5</v>
+      </c>
+      <c r="BH91">
+        <v>9</v>
+      </c>
+      <c r="BI91">
+        <v>2</v>
+      </c>
+      <c r="BJ91">
+        <v>17</v>
+      </c>
+      <c r="BK91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:63">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5240174</v>
+      </c>
+      <c r="C92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45010.9375</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>69</v>
+      </c>
+      <c r="H92" t="s">
+        <v>73</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>152</v>
+      </c>
+      <c r="P92" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>3</v>
+      </c>
+      <c r="S92">
+        <v>8</v>
+      </c>
+      <c r="T92">
+        <v>2.15</v>
+      </c>
+      <c r="U92">
+        <v>2.05</v>
+      </c>
+      <c r="V92">
+        <v>5.8</v>
+      </c>
+      <c r="W92">
+        <v>1.44</v>
+      </c>
+      <c r="X92">
+        <v>2.62</v>
+      </c>
+      <c r="Y92">
+        <v>3</v>
+      </c>
+      <c r="Z92">
+        <v>1.36</v>
+      </c>
+      <c r="AA92">
+        <v>7.5</v>
+      </c>
+      <c r="AB92">
+        <v>1.07</v>
+      </c>
+      <c r="AC92">
+        <v>1.57</v>
+      </c>
+      <c r="AD92">
+        <v>3.4</v>
+      </c>
+      <c r="AE92">
+        <v>6</v>
+      </c>
+      <c r="AF92">
+        <v>1.08</v>
+      </c>
+      <c r="AG92">
+        <v>7</v>
+      </c>
+      <c r="AH92">
+        <v>1.4</v>
+      </c>
+      <c r="AI92">
+        <v>2.75</v>
+      </c>
+      <c r="AJ92">
+        <v>2.25</v>
+      </c>
+      <c r="AK92">
+        <v>1.53</v>
+      </c>
+      <c r="AL92">
+        <v>2.3</v>
+      </c>
+      <c r="AM92">
+        <v>1.57</v>
+      </c>
+      <c r="AN92">
+        <v>1.08</v>
+      </c>
+      <c r="AO92">
+        <v>1.25</v>
+      </c>
+      <c r="AP92">
+        <v>2.5</v>
+      </c>
+      <c r="AQ92">
+        <v>2</v>
+      </c>
+      <c r="AR92">
+        <v>0.6</v>
+      </c>
+      <c r="AS92">
+        <v>2.25</v>
+      </c>
+      <c r="AT92">
+        <v>0.5</v>
+      </c>
+      <c r="AU92">
+        <v>1.76</v>
+      </c>
+      <c r="AV92">
+        <v>1.52</v>
+      </c>
+      <c r="AW92">
+        <v>3.28</v>
+      </c>
+      <c r="AX92">
+        <v>1.45</v>
+      </c>
+      <c r="AY92">
+        <v>8.5</v>
+      </c>
+      <c r="AZ92">
+        <v>3.28</v>
+      </c>
+      <c r="BA92">
+        <v>1.32</v>
+      </c>
+      <c r="BB92">
+        <v>1.6</v>
+      </c>
+      <c r="BC92">
+        <v>2.05</v>
+      </c>
+      <c r="BD92">
+        <v>2.8</v>
+      </c>
+      <c r="BE92">
+        <v>4</v>
+      </c>
+      <c r="BF92">
+        <v>11</v>
+      </c>
+      <c r="BG92">
+        <v>4</v>
+      </c>
+      <c r="BH92">
+        <v>6</v>
+      </c>
+      <c r="BI92">
+        <v>3</v>
+      </c>
+      <c r="BJ92">
+        <v>17</v>
+      </c>
+      <c r="BK92">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['48', '84']</t>
   </si>
   <si>
+    <t>['88', '90+2']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['59']</t>
   </si>
   <si>
@@ -590,6 +596,15 @@
   </si>
   <si>
     <t>['32']</t>
+  </si>
+  <si>
+    <t>['62', '67']</t>
+  </si>
+  <si>
+    <t>['15', '49']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1401,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1473,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>0.5</v>
@@ -1667,7 +1682,7 @@
         <v>2.6</v>
       </c>
       <c r="AT4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1959,7 +1974,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2049,7 +2064,7 @@
         <v>2.25</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2341,7 +2356,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2428,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>1.2</v>
@@ -2723,7 +2738,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3105,7 +3120,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3195,7 +3210,7 @@
         <v>1.4</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3296,7 +3311,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3487,7 +3502,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4060,7 +4075,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4251,7 +4266,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4442,7 +4457,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4529,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>1.75</v>
@@ -4633,7 +4648,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -4723,7 +4738,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4911,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT21">
         <v>0.8</v>
@@ -5105,7 +5120,7 @@
         <v>1.2</v>
       </c>
       <c r="AT22">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU22">
         <v>1.95</v>
@@ -5293,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5397,7 +5412,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5970,7 +5985,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6057,7 +6072,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>1</v>
@@ -6161,7 +6176,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6352,7 +6367,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6543,7 +6558,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6925,7 +6940,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7116,7 +7131,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7203,10 +7218,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7307,7 +7322,7 @@
         <v>112</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -7880,7 +7895,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7970,7 +7985,7 @@
         <v>1.75</v>
       </c>
       <c r="AT37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU37">
         <v>2.6</v>
@@ -8071,7 +8086,7 @@
         <v>113</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8352,7 +8367,7 @@
         <v>1.5</v>
       </c>
       <c r="AT39">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU39">
         <v>1.47</v>
@@ -8453,7 +8468,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8644,7 +8659,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8835,7 +8850,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9026,7 +9041,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9113,7 +9128,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT43">
         <v>1.2</v>
@@ -9686,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>0.8</v>
@@ -10068,7 +10083,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT48">
         <v>0.6</v>
@@ -10262,7 +10277,7 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU49">
         <v>1.92</v>
@@ -10363,7 +10378,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11026,7 +11041,7 @@
         <v>2.6</v>
       </c>
       <c r="AT53">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU53">
         <v>1.73</v>
@@ -11127,7 +11142,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11214,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT54">
         <v>0.8</v>
@@ -11509,7 +11524,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11700,7 +11715,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11978,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
         <v>0.25</v>
@@ -12464,7 +12479,7 @@
         <v>85</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12655,7 +12670,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12846,7 +12861,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13127,7 +13142,7 @@
         <v>2.4</v>
       </c>
       <c r="AT64">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13228,7 +13243,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13315,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
         <v>0.5</v>
@@ -13419,7 +13434,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13506,7 +13521,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -13700,7 +13715,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14183,7 +14198,7 @@
         <v>125</v>
       </c>
       <c r="P70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q70">
         <v>6</v>
@@ -14565,7 +14580,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -14655,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="AT72">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15034,10 +15049,10 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AU74">
         <v>2.32</v>
@@ -15138,7 +15153,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15329,7 +15344,7 @@
         <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15711,7 +15726,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15902,7 +15917,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16284,7 +16299,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -17138,7 +17153,7 @@
         <v>2.5</v>
       </c>
       <c r="AT85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AU85">
         <v>1.6</v>
@@ -17239,7 +17254,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>12</v>
@@ -17520,7 +17535,7 @@
         <v>2.6</v>
       </c>
       <c r="AT87">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU87">
         <v>1.88</v>
@@ -17812,7 +17827,7 @@
         <v>149</v>
       </c>
       <c r="P89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18194,7 +18209,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18385,7 +18400,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18527,6 +18542,770 @@
       </c>
       <c r="BK92">
         <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:63">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5240176</v>
+      </c>
+      <c r="C93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45011.71875</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>66</v>
+      </c>
+      <c r="H93" t="s">
+        <v>75</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>153</v>
+      </c>
+      <c r="P93" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q93">
+        <v>8</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>10</v>
+      </c>
+      <c r="T93">
+        <v>3.6</v>
+      </c>
+      <c r="U93">
+        <v>1.85</v>
+      </c>
+      <c r="V93">
+        <v>3.25</v>
+      </c>
+      <c r="W93">
+        <v>1.53</v>
+      </c>
+      <c r="X93">
+        <v>2.38</v>
+      </c>
+      <c r="Y93">
+        <v>3.5</v>
+      </c>
+      <c r="Z93">
+        <v>1.29</v>
+      </c>
+      <c r="AA93">
+        <v>9</v>
+      </c>
+      <c r="AB93">
+        <v>1.05</v>
+      </c>
+      <c r="AC93">
+        <v>2.85</v>
+      </c>
+      <c r="AD93">
+        <v>2.75</v>
+      </c>
+      <c r="AE93">
+        <v>2.5</v>
+      </c>
+      <c r="AF93">
+        <v>1.12</v>
+      </c>
+      <c r="AG93">
+        <v>5.5</v>
+      </c>
+      <c r="AH93">
+        <v>1.55</v>
+      </c>
+      <c r="AI93">
+        <v>2.45</v>
+      </c>
+      <c r="AJ93">
+        <v>2.9</v>
+      </c>
+      <c r="AK93">
+        <v>1.36</v>
+      </c>
+      <c r="AL93">
+        <v>2.2</v>
+      </c>
+      <c r="AM93">
+        <v>1.62</v>
+      </c>
+      <c r="AN93">
+        <v>1.44</v>
+      </c>
+      <c r="AO93">
+        <v>1.4</v>
+      </c>
+      <c r="AP93">
+        <v>1.36</v>
+      </c>
+      <c r="AQ93">
+        <v>1.67</v>
+      </c>
+      <c r="AR93">
+        <v>0.25</v>
+      </c>
+      <c r="AS93">
+        <v>1.5</v>
+      </c>
+      <c r="AT93">
+        <v>0.4</v>
+      </c>
+      <c r="AU93">
+        <v>1.45</v>
+      </c>
+      <c r="AV93">
+        <v>1.2</v>
+      </c>
+      <c r="AW93">
+        <v>2.65</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>7.5</v>
+      </c>
+      <c r="AZ93">
+        <v>2.1</v>
+      </c>
+      <c r="BA93">
+        <v>1.36</v>
+      </c>
+      <c r="BB93">
+        <v>1.8</v>
+      </c>
+      <c r="BC93">
+        <v>2.12</v>
+      </c>
+      <c r="BD93">
+        <v>2.79</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>4</v>
+      </c>
+      <c r="BG93">
+        <v>3</v>
+      </c>
+      <c r="BH93">
+        <v>7</v>
+      </c>
+      <c r="BI93">
+        <v>5</v>
+      </c>
+      <c r="BJ93">
+        <v>11</v>
+      </c>
+      <c r="BK93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:63">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5240180</v>
+      </c>
+      <c r="C94" t="s">
+        <v>63</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45011.8125</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>154</v>
+      </c>
+      <c r="P94" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q94">
+        <v>15</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>16</v>
+      </c>
+      <c r="T94">
+        <v>3.5</v>
+      </c>
+      <c r="U94">
+        <v>1.91</v>
+      </c>
+      <c r="V94">
+        <v>3.2</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
+        <v>2.38</v>
+      </c>
+      <c r="Y94">
+        <v>3.4</v>
+      </c>
+      <c r="Z94">
+        <v>1.3</v>
+      </c>
+      <c r="AA94">
+        <v>9</v>
+      </c>
+      <c r="AB94">
+        <v>1.05</v>
+      </c>
+      <c r="AC94">
+        <v>2.8</v>
+      </c>
+      <c r="AD94">
+        <v>2.8</v>
+      </c>
+      <c r="AE94">
+        <v>2.5</v>
+      </c>
+      <c r="AF94">
+        <v>1.11</v>
+      </c>
+      <c r="AG94">
+        <v>6</v>
+      </c>
+      <c r="AH94">
+        <v>1.44</v>
+      </c>
+      <c r="AI94">
+        <v>2.4</v>
+      </c>
+      <c r="AJ94">
+        <v>2.35</v>
+      </c>
+      <c r="AK94">
+        <v>1.53</v>
+      </c>
+      <c r="AL94">
+        <v>2.1</v>
+      </c>
+      <c r="AM94">
+        <v>1.67</v>
+      </c>
+      <c r="AN94">
+        <v>1.44</v>
+      </c>
+      <c r="AO94">
+        <v>1.36</v>
+      </c>
+      <c r="AP94">
+        <v>1.4</v>
+      </c>
+      <c r="AQ94">
+        <v>0.75</v>
+      </c>
+      <c r="AR94">
+        <v>1.5</v>
+      </c>
+      <c r="AS94">
+        <v>0.8</v>
+      </c>
+      <c r="AT94">
+        <v>1.4</v>
+      </c>
+      <c r="AU94">
+        <v>1.81</v>
+      </c>
+      <c r="AV94">
+        <v>1.48</v>
+      </c>
+      <c r="AW94">
+        <v>3.29</v>
+      </c>
+      <c r="AX94">
+        <v>2.05</v>
+      </c>
+      <c r="AY94">
+        <v>7.5</v>
+      </c>
+      <c r="AZ94">
+        <v>2</v>
+      </c>
+      <c r="BA94">
+        <v>1.48</v>
+      </c>
+      <c r="BB94">
+        <v>1.85</v>
+      </c>
+      <c r="BC94">
+        <v>2.5</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>6</v>
+      </c>
+      <c r="BG94">
+        <v>6</v>
+      </c>
+      <c r="BH94">
+        <v>10</v>
+      </c>
+      <c r="BI94">
+        <v>5</v>
+      </c>
+      <c r="BJ94">
+        <v>16</v>
+      </c>
+      <c r="BK94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:63">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5240181</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45011.90625</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>84</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>109</v>
+      </c>
+      <c r="P95" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>7</v>
+      </c>
+      <c r="T95">
+        <v>3.4</v>
+      </c>
+      <c r="U95">
+        <v>1.87</v>
+      </c>
+      <c r="V95">
+        <v>3.5</v>
+      </c>
+      <c r="W95">
+        <v>1.56</v>
+      </c>
+      <c r="X95">
+        <v>2.29</v>
+      </c>
+      <c r="Y95">
+        <v>3.7</v>
+      </c>
+      <c r="Z95">
+        <v>1.24</v>
+      </c>
+      <c r="AA95">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB95">
+        <v>1.03</v>
+      </c>
+      <c r="AC95">
+        <v>2.85</v>
+      </c>
+      <c r="AD95">
+        <v>2.75</v>
+      </c>
+      <c r="AE95">
+        <v>2.45</v>
+      </c>
+      <c r="AF95">
+        <v>1.11</v>
+      </c>
+      <c r="AG95">
+        <v>6.5</v>
+      </c>
+      <c r="AH95">
+        <v>1.52</v>
+      </c>
+      <c r="AI95">
+        <v>2.45</v>
+      </c>
+      <c r="AJ95">
+        <v>2.9</v>
+      </c>
+      <c r="AK95">
+        <v>1.36</v>
+      </c>
+      <c r="AL95">
+        <v>2.1</v>
+      </c>
+      <c r="AM95">
+        <v>1.7</v>
+      </c>
+      <c r="AN95">
+        <v>1.42</v>
+      </c>
+      <c r="AO95">
+        <v>1.33</v>
+      </c>
+      <c r="AP95">
+        <v>1.45</v>
+      </c>
+      <c r="AQ95">
+        <v>1.33</v>
+      </c>
+      <c r="AR95">
+        <v>1.33</v>
+      </c>
+      <c r="AS95">
+        <v>1</v>
+      </c>
+      <c r="AT95">
+        <v>1.75</v>
+      </c>
+      <c r="AU95">
+        <v>2.18</v>
+      </c>
+      <c r="AV95">
+        <v>1.23</v>
+      </c>
+      <c r="AW95">
+        <v>3.41</v>
+      </c>
+      <c r="AX95">
+        <v>2.2</v>
+      </c>
+      <c r="AY95">
+        <v>7.5</v>
+      </c>
+      <c r="AZ95">
+        <v>1.91</v>
+      </c>
+      <c r="BA95">
+        <v>1.33</v>
+      </c>
+      <c r="BB95">
+        <v>1.66</v>
+      </c>
+      <c r="BC95">
+        <v>2.12</v>
+      </c>
+      <c r="BD95">
+        <v>2.9</v>
+      </c>
+      <c r="BE95">
+        <v>3.9</v>
+      </c>
+      <c r="BF95">
+        <v>5</v>
+      </c>
+      <c r="BG95">
+        <v>6</v>
+      </c>
+      <c r="BH95">
+        <v>4</v>
+      </c>
+      <c r="BI95">
+        <v>4</v>
+      </c>
+      <c r="BJ95">
+        <v>9</v>
+      </c>
+      <c r="BK95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:63">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5240173</v>
+      </c>
+      <c r="C96" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45012.92013888889</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>79</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>85</v>
+      </c>
+      <c r="P96" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q96">
+        <v>7</v>
+      </c>
+      <c r="R96">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>12</v>
+      </c>
+      <c r="T96">
+        <v>3</v>
+      </c>
+      <c r="U96">
+        <v>1.9</v>
+      </c>
+      <c r="V96">
+        <v>4</v>
+      </c>
+      <c r="W96">
+        <v>1.56</v>
+      </c>
+      <c r="X96">
+        <v>2.29</v>
+      </c>
+      <c r="Y96">
+        <v>3.7</v>
+      </c>
+      <c r="Z96">
+        <v>1.24</v>
+      </c>
+      <c r="AA96">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB96">
+        <v>1.03</v>
+      </c>
+      <c r="AC96">
+        <v>2.25</v>
+      </c>
+      <c r="AD96">
+        <v>3</v>
+      </c>
+      <c r="AE96">
+        <v>3.25</v>
+      </c>
+      <c r="AF96">
+        <v>1.09</v>
+      </c>
+      <c r="AG96">
+        <v>7</v>
+      </c>
+      <c r="AH96">
+        <v>1.5</v>
+      </c>
+      <c r="AI96">
+        <v>2.55</v>
+      </c>
+      <c r="AJ96">
+        <v>2.45</v>
+      </c>
+      <c r="AK96">
+        <v>1.51</v>
+      </c>
+      <c r="AL96">
+        <v>2.1</v>
+      </c>
+      <c r="AM96">
+        <v>1.68</v>
+      </c>
+      <c r="AN96">
+        <v>1.28</v>
+      </c>
+      <c r="AO96">
+        <v>1.3</v>
+      </c>
+      <c r="AP96">
+        <v>1.6</v>
+      </c>
+      <c r="AQ96">
+        <v>1.6</v>
+      </c>
+      <c r="AR96">
+        <v>1.4</v>
+      </c>
+      <c r="AS96">
+        <v>1.33</v>
+      </c>
+      <c r="AT96">
+        <v>1.67</v>
+      </c>
+      <c r="AU96">
+        <v>1.69</v>
+      </c>
+      <c r="AV96">
+        <v>1.35</v>
+      </c>
+      <c r="AW96">
+        <v>3.04</v>
+      </c>
+      <c r="AX96">
+        <v>1.71</v>
+      </c>
+      <c r="AY96">
+        <v>7.5</v>
+      </c>
+      <c r="AZ96">
+        <v>2.67</v>
+      </c>
+      <c r="BA96">
+        <v>1.39</v>
+      </c>
+      <c r="BB96">
+        <v>1.72</v>
+      </c>
+      <c r="BC96">
+        <v>2.14</v>
+      </c>
+      <c r="BD96">
+        <v>2.98</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>4</v>
+      </c>
+      <c r="BG96">
+        <v>9</v>
+      </c>
+      <c r="BH96">
+        <v>7</v>
+      </c>
+      <c r="BI96">
+        <v>8</v>
+      </c>
+      <c r="BJ96">
+        <v>11</v>
+      </c>
+      <c r="BK96">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5</v>
@@ -1512,7 +1512,7 @@
         <v>2.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.4</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2730,7 +2730,7 @@
         <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>2.15</v>
@@ -2933,7 +2933,7 @@
         <v>1.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>0.83</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU15" t="n">
         <v>1.91</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.6</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT18" t="n">
         <v>1.2</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU19" t="n">
         <v>1.29</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
         <v>1.4</v>
@@ -4760,7 +4760,7 @@
         <v>0.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>0.4</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>2.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU24" t="n">
         <v>2.08</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT25" t="n">
         <v>0.6</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.83</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.95</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT30" t="n">
         <v>0.4</v>
@@ -6790,7 +6790,7 @@
         <v>2.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU31" t="n">
         <v>1.86</v>
@@ -6993,7 +6993,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.45</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT34" t="n">
         <v>0.83</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU35" t="n">
         <v>2.19</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU36" t="n">
         <v>1.59</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT37" t="n">
         <v>1.4</v>
@@ -8211,7 +8211,7 @@
         <v>2.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT39" t="n">
         <v>0.4</v>
@@ -8617,7 +8617,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU40" t="n">
         <v>1.58</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT41" t="n">
         <v>1.2</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.97</v>
@@ -9226,7 +9226,7 @@
         <v>0.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.81</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>0.4</v>
@@ -9835,7 +9835,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU46" t="n">
         <v>1.65</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
         <v>0.6</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU49" t="n">
         <v>1.92</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -11459,7 +11459,7 @@
         <v>0.8</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU54" t="n">
         <v>2.02</v>
@@ -11659,10 +11659,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU55" t="n">
         <v>1.71</v>
@@ -11862,10 +11862,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.2</v>
@@ -12065,7 +12065,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.2</v>
@@ -12268,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU58" t="n">
         <v>1.53</v>
@@ -12471,10 +12471,10 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.98</v>
@@ -12677,7 +12677,7 @@
         <v>2.5</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU60" t="n">
         <v>2.02</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU61" t="n">
         <v>1.76</v>
@@ -13083,7 +13083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU62" t="n">
         <v>1.61</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.93</v>
@@ -14098,7 +14098,7 @@
         <v>1.67</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU67" t="n">
         <v>1.47</v>
@@ -14504,7 +14504,7 @@
         <v>2.6</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU69" t="n">
         <v>2.01</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15516,7 +15516,7 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT74" t="n">
         <v>1.4</v>
@@ -15722,7 +15722,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.63</v>
@@ -15922,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.7</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT77" t="n">
         <v>0.6</v>
@@ -16328,10 +16328,10 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.2</v>
@@ -16734,10 +16734,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.8</v>
@@ -16940,7 +16940,7 @@
         <v>2.5</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>1.68</v>
@@ -17140,10 +17140,10 @@
         <v>0.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU82" t="n">
         <v>1.76</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU83" t="n">
         <v>1.63</v>
@@ -17546,10 +17546,10 @@
         <v>1</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17749,10 +17749,10 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU85" t="n">
         <v>2.18</v>
@@ -18155,10 +18155,10 @@
         <v>1.5</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.81</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT88" t="n">
         <v>0.4</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU90" t="n">
         <v>1.59</v>
@@ -19576,7 +19576,7 @@
         <v>0.25</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT94" t="n">
         <v>0.4</v>
@@ -19982,10 +19982,10 @@
         <v>1.33</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU96" t="n">
         <v>2.07</v>
@@ -20594,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU99" t="n">
         <v>1.85</v>
@@ -20646,6 +20646,2036 @@
       </c>
       <c r="BK99" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5240192</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45016.83333333334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5240190</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45016.92361111111</v>
+      </c>
+      <c r="F101" t="n">
+        <v>11</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Boyacá Chicó</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>7</v>
+      </c>
+      <c r="R101" t="n">
+        <v>6</v>
+      </c>
+      <c r="S101" t="n">
+        <v>13</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V101" t="n">
+        <v>5</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5240191</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45017.66666666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5240183</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45017.75694444445</v>
+      </c>
+      <c r="F103" t="n">
+        <v>11</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>7</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>9</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5240185</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45017.84722222222</v>
+      </c>
+      <c r="F104" t="n">
+        <v>11</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>7</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5240188</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45017.9375</v>
+      </c>
+      <c r="F105" t="n">
+        <v>11</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['80', '86']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>6</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5240189</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45018.75</v>
+      </c>
+      <c r="F106" t="n">
+        <v>11</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>América de Cali</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>6</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>7</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V106" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5240186</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45018.84027777778</v>
+      </c>
+      <c r="F107" t="n">
+        <v>11</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['18', '46', '90+4']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>6</v>
+      </c>
+      <c r="S107" t="n">
+        <v>11</v>
+      </c>
+      <c r="T107" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5240184</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45018.93055555555</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>14</v>
+      </c>
+      <c r="S108" t="n">
+        <v>16</v>
+      </c>
+      <c r="T108" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5240187</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45019.92361111111</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>6</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>10</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>7</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -3948,7 +3948,7 @@
         <v>1.4</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU17" t="n">
         <v>2.06</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT24" t="n">
         <v>0.83</v>
@@ -5775,7 +5775,7 @@
         <v>2.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU52" t="n">
         <v>1.38</v>
@@ -13692,7 +13692,7 @@
         <v>1.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU65" t="n">
         <v>1.64</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT69" t="n">
         <v>0.83</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -19376,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU93" t="n">
         <v>1.76</v>
@@ -22676,6 +22676,209 @@
       </c>
       <c r="BK109" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5240202</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45023.79166666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>12</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Rionegro Águilas</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Atlético Huila</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['23', '84']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>6</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2</v>
+      </c>
+      <c r="S110" t="n">
+        <v>8</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V110" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK110"/>
+  <dimension ref="A1:BK116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1.83</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>0.43</v>
@@ -4151,7 +4151,7 @@
         <v>1.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT19" t="n">
         <v>1.6</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT21" t="n">
         <v>0.83</v>
@@ -5166,7 +5166,7 @@
         <v>1.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU23" t="n">
         <v>1.29</v>
@@ -5572,7 +5572,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU25" t="n">
         <v>2.16</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT26" t="n">
         <v>0.43</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU28" t="n">
         <v>1.46</v>
@@ -6587,7 +6587,7 @@
         <v>2.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>2.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.17</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT38" t="n">
         <v>0.4</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
         <v>0.83</v>
@@ -8820,7 +8820,7 @@
         <v>1.17</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.23</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU45" t="n">
         <v>2.31</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT46" t="n">
         <v>0.83</v>
@@ -10038,7 +10038,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10241,7 +10241,7 @@
         <v>1.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU48" t="n">
         <v>2.44</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU51" t="n">
         <v>2.46</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT54" t="n">
         <v>0.83</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.77</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
         <v>0.83</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT64" t="n">
         <v>1.67</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT65" t="n">
         <v>0.43</v>
@@ -13892,7 +13892,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         <v>2.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.75</v>
@@ -14707,7 +14707,7 @@
         <v>1.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU70" t="n">
         <v>2.31</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU71" t="n">
         <v>2.08</v>
@@ -15316,7 +15316,7 @@
         <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.76</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT75" t="n">
         <v>1.6</v>
@@ -16128,7 +16128,7 @@
         <v>1.17</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.62</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16937,7 +16937,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -17952,7 +17952,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT86" t="n">
         <v>1.67</v>
@@ -18564,7 +18564,7 @@
         <v>2.67</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU89" t="n">
         <v>1.85</v>
@@ -18967,7 +18967,7 @@
         <v>1.25</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU92" t="n">
         <v>1.45</v>
@@ -19779,7 +19779,7 @@
         <v>1.5</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AT95" t="n">
         <v>1.4</v>
@@ -20185,7 +20185,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT97" t="n">
         <v>1.67</v>
@@ -20391,7 +20391,7 @@
         <v>2.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU98" t="n">
         <v>1.64</v>
@@ -22879,6 +22879,1224 @@
       </c>
       <c r="BK110" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5240197</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45024.66666666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Unión Magdalena</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>8</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5240193</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45024.75694444445</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Jaguares de Córdoba</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['49', '90+4']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>10</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V112" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5240200</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45024.84722222222</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>7</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>9</v>
+      </c>
+      <c r="T113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5240201</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45024.9375</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Independiente Medellín</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['58', '88']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>7</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>8</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2</v>
+      </c>
+      <c r="V114" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5240196</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45025.66666666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>12</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Atlético Bucaramanga</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>6</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>10</v>
+      </c>
+      <c r="T115" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5240199</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45025.84722222222</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Alianza Petrolera</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>4</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['15', '26', '31']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>11</v>
+      </c>
+      <c r="S116" t="n">
+        <v>15</v>
+      </c>
+      <c r="T116" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera A_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK116"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT6" t="n">
         <v>1.4</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT7" t="n">
         <v>0.83</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU22" t="n">
         <v>1.95</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT32" t="n">
         <v>0.67</v>
@@ -7196,7 +7196,7 @@
         <v>1.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1.4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU39" t="n">
         <v>1.47</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT50" t="n">
         <v>0.67</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT52" t="n">
         <v>0.43</v>
@@ -11256,7 +11256,7 @@
         <v>2.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU53" t="n">
         <v>1.73</v>
@@ -13489,7 +13489,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU64" t="n">
         <v>1.95</v>
@@ -14095,7 +14095,7 @@
         <v>1.5</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT67" t="n">
         <v>1.83</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.69</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -17955,7 +17955,7 @@
         <v>2.6</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU86" t="n">
         <v>1.6</v>
@@ -18361,7 +18361,7 @@
         <v>2.33</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU88" t="n">
         <v>1.88</v>
@@ -19170,7 +19170,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT92" t="n">
         <v>0.71</v>
@@ -19373,7 +19373,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT93" t="n">
         <v>0.43</v>
@@ -19579,7 +19579,7 @@
         <v>1.8</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -20188,7 +20188,7 @@
         <v>1.57</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU97" t="n">
         <v>1.69</v>
@@ -20591,7 +20591,7 @@
         <v>1.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT99" t="n">
         <v>1.83</v>
@@ -24097,6 +24097,412 @@
       </c>
       <c r="BK116" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5240198</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45026.83333333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Atlético Nacional</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>6</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2</v>
+      </c>
+      <c r="S117" t="n">
+        <v>8</v>
+      </c>
+      <c r="T117" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V117" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5240194</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45026.92013888889</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>4</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['38', '42', '53']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>9</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V118" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
